--- a/resource/r7_wordings.xlsx
+++ b/resource/r7_wordings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="351">
   <si>
     <t>Origine</t>
   </si>
@@ -55,19 +55,19 @@
     <t>Form\\</t>
   </si>
   <si>
-    <t>* Campos obligatorios</t>
+    <t>* Campos obligatorios\\</t>
   </si>
   <si>
     <t>* حقول إلزامية\\</t>
   </si>
   <si>
-    <t>* Verplichte velden</t>
+    <t>* Verplichte velden\\</t>
   </si>
   <si>
     <t>* Campi obbligatori\\</t>
   </si>
   <si>
-    <t>* Pflichtfelder</t>
+    <t>* Pflichtfelder\\</t>
   </si>
   <si>
     <t>TBD</t>
@@ -76,25 +76,25 @@
     <t>pinned_offers#27\\</t>
   </si>
   <si>
-    <t>Afficher l'offre \\</t>
+    <t>Afficher l’offre \\</t>
   </si>
   <si>
     <t>Display the offer\\</t>
   </si>
   <si>
-    <t>Mostrar la oferta</t>
+    <t>Mostrar la oferta\\</t>
   </si>
   <si>
     <t>عرض العرض \\</t>
   </si>
   <si>
-    <t>De aanbieding weergeven</t>
+    <t>De aanbieding weergeven\\</t>
   </si>
   <si>
     <t>Mostrare l’offerta\\</t>
   </si>
   <si>
-    <t>Angebot anzeigen</t>
+    <t>Angebot anzeigen\\</t>
   </si>
   <si>
     <t>CARTES BANCAIRES</t>
@@ -127,7 +127,7 @@
         <color rgb="FFFF0000"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve">not_found\\
+      <t xml:space="preserve">short#1170\\
 </t>
     </r>
     <r>
@@ -146,7 +146,7 @@
         <color rgb="FFFF0000"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve">not_found\\
+      <t xml:space="preserve">short#1171\\
 </t>
     </r>
     <r>
@@ -165,7 +165,7 @@
         <color rgb="FFFF0000"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve">not_found\\
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -197,169 +197,158 @@
     </r>
   </si>
   <si>
-    <t>Nous avons forcément une carte faite pour vous\\
+    <t xml:space="preserve">Nous avons forcément une carte faite pour vous\\
 BANK OF AFRICA vous propose une large gamme de cartes bancaires, de services et options associées en souscrivant à l’offre packagée de votre choix.\\
 Des modes de paiement adaptés selon vos besoins au quotidien, au Maroc comme à l’international : paiement en ligne ou en magasin (sans contact) et retrait d’espèces en GAB.\\
- Choisissez la carte bancaire qui répond à vos attentes : \\
+Choisissez la carte bancaire qui répond à vos attentes : \\
 Les Cartes Classiques :\\
 Pas si classiques que ça : ces cartes vous donnent accès à toute une variété de services : retraits aux guichets, paiements par carte, paiement sans contact, au Maroc comme à l’étranger.\\
 Les Cartes Premium :\\
-Une expérience à la hauteur de ce que vous méritez : c’est ce que nous vous offrons avec les cartes bancaires Premium de BANK OF AFRICA. 
-A commencer par les Visa Gold, qui vous donnent accès à un programme d’avantages commerçants et à des services d’assistance, en plus, des services de retraits et de paiements à l’international.
-Ensuite, la Visa Platinum, offrant des plafonds élargis de paiement et de retrait au Maroc comme à l’international, un univers d’avantages attractifs (Accès VIP gratuit et illimité à 25 lounges d'aéroports au Maroc et à l'international, adhésion au programme AIRPORTS LOUNGE KEY, remises commerçants…) et l’accès gratuit à une gamme de services d’assurance.\\
+Une expérience à la hauteur de ce que vous méritez : c’est ce que nous vous offrons avec les cartes bancaires Premium de BANK OF AFRICA. A commencer par les Visa Gold, qui vous donnent accès à un programme d’avantages commerçants et à des services d’assistance, en plus, des services de retraits et de paiements à l’international. Ensuite, la Visa Platinum, offrant des plafonds élargis de paiement et de retrait au Maroc comme à l’international, un univers d’avantages attractifs (Accès VIP gratuit et illimité à 25 lounges d’aéroports au Maroc et à l’international, adhésion au programme AIRPORTS LOUNGE KEY, remises commerçants…) et l’accès gratuit à une gamme de services d’assurance.\\
 Les cartes prépayées :\\
 Que vous soyez clients de BANK OF AFRICA ou non, avec la carte bancaire rechargeable ‘’Family’’, vous pouvez transférer, en temps réel, votre argent de l’étranger vers une carte bancaire au Maroc. La vôtre, ou celle de vos proches.\\
 De plus, vous pouvez, personnaliser le fonctionnement de votre carte grâce au « service de gestion des paramètres carte », accessible via BMCE DIRECT WEB et Mobile qui vous permet de contrôler les paramètres de vos cartes en temps réel en les activant ou les désactivant : \\
-•        Retrait au Maroc  \\
-•        Paiement TPE au Maroc\\
-•        Paiement en ligne au Maroc\\
-•        Retrait à l'étranger\\
-•        Paiement TPE à l'étranger\\
-•        Paiement en ligne à l'étranger\\
-•        Contactless (Paiement sans contact)\\
-•        Blocage de la carte (par défaut « Débloquée », il est possible « Bloquer » la carte à n’importe quelle moment).\\
-Pour en profiter, sélectionnez l’offre qui correspond à votre profil : \\</t>
-  </si>
-  <si>
-    <t>We have the ideal card for you\\
+Retrait au Maroc  \\
+Paiement TPE au Maroc\\
+Paiement en ligne au Maroc\\
+Retrait à l’étranger\\
+Paiement TPE à l’étranger\\
+Paiement en ligne à l’étranger\\
+Contactless (Paiement sans contact)\\
+Blocage de la carte (par défaut « Débloquée », il est possible « Bloquer » la carte à n’importe quelle moment).\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have the ideal card for you\\
 BANK OF AFRICA offers you a full range of bank cards, services, and additional options by subscribing to the package of your choice.\\
 Payment methods are tailored to your day-to-day needs, in Morocco and abroad: online or in-store payment (contactless) and cash withdrawal at ATMs.\\
-Choose the bank card that's right for you: \\
+Choose the bank card that’s right for you: \\
 Classic Cards:\\
 Not your typical classic card: these cards give you access to a whole variety of services: ATM withdrawals, card payments, contactless payments, in Morocco and abroad.\\
 Premium Cards:\\
-An experience that lives up to your expectations: that's what we deliver with BANK OF AFRICA's Premium bank cards. 
-Starting with Visa Gold, which gives you access to a merchant benefits program and assistance services, plus international withdrawals and payments.
-Next, the Visa Platinum, offering extended payment and withdrawal limits in Morocco and abroad, a world of attractive benefits (free, unlimited VIP access to 25 airport lounges in Morocco and abroad, membership of the AIRPORTS LOUNGE KEY program, merchant discounts, etc.), and free access to a host of insurance services.\\
+An experience that lives up to your expectations: that’s what we deliver with BANK OF AFRICA’s Premium bank cards. Starting with Visa Gold, which gives you access to a merchant benefits program and assistance services, plus international withdrawals and payments. Next, the Visa Platinum, offering extended payment and withdrawal limits in Morocco and abroad, a world of attractive benefits (free, unlimited VIP access to 25 airport lounges in Morocco and abroad, membership of the AIRPORTS LOUNGE KEY program, merchant discounts, etc.), and free access to a host of insurance services.\\
 Prepaid Cards:\\
-Whether you're a BANK OF AFRICA customer or not, with the reloadable "Family" bank card, you can transfer money in real time from abroad to a bank card in Morocco-whether it's your own, or a friend or family member.\\
-What's more, you can customize the way your card works, thanks to the "Card Parameters Management Service", accessible via BMCE DIRECT WEB and Mobile, which lets you control the configuration of your cards in real time by activating or deactivating them: \\
-• Withdrawals in Morocco  \\
-• POS payments in Morocco \\
-• Online payments in Morocco \\
-• Withdrawals abroad \\
-• POS payments abroad \\
-• Online payments abroad \\
-• Contactless payments \\
-- Card blocking (by default "Unblocked"; it may also be "Blocked" at any time).\\
-To take advantage, select the offer that matches your profile: \\</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguro que tenemos una tarjeta perfecta para usted BANK OF AFRICA le ofrece una amplia gama de tarjetas bancarias, servicios y opciones asociadas suscribiéndose al paquete de su elección.
-Formas de pago adaptadas a sus necesidades cotidianas, en Marruecos y en el extranjero: pago en línea o en el comercio (sin contacto) y retirada de efectivo en los cajeros automáticos.
- Elija la tarjeta bancaria más adecuada para usted: 
-Tarjetas clásicas:
-No tan clásicas: estas tarjetas le dan acceso a toda una gama de servicios: reintegros en cajeros automáticos, pagos con tarjeta, pagos sin contacto, tanto en Marruecos como en el extranjero.
-Tarjetas Premium:
-Una experiencia a la altura de lo que se merece: eso es lo que le ofrecemos con las tarjetas bancarias Premium de BANK OF AFRICA. 
-Empezando por Visa Oro, que le da acceso a un programa de ventajas comerciales y servicios de asistencia, así como a reintegros y pagos internacionales.
-También está la Visa Platinum, que ofrece mayores límites de pago y retirada en Marruecos y en el extranjero, una serie de atractivas ventajas (acceso VIP gratuito e ilimitado a 25 salas VIP de aeropuertos en Marruecos y en el extranjero, pertenencia al programa AIRPORTS LOUNGE KEY, descuentos en comercios, etc.) y acceso gratuito a una serie de servicios de seguros.
-Tarjetas de prepago:
-Tanto si es cliente del BANCO DE ÁFRICA como si no, con la tarjeta bancaria recargable "Family" podrá transferir su dinero del extranjero a una tarjeta bancaria en Marruecos en tiempo real. Su propia tarjeta o la de sus seres queridos.
-Además, puede personalizar el funcionamiento de su tarjeta utilizando el "servicio de gestión de los parámetros de la tarjeta", accesible a través de BMCE DIRECT WEB y Mobile, que le permite controlar en tiempo real los parámetros de sus tarjetas activándolos o desactivándolos: 
-- Retirada de fondos en Marruecos  
-- Pago Electrónico (TPE) en Marruecos
-- Pago en línea en Marruecos
-- Retirada de fondos en el extranjero
-- Pago Electrónico (TPE) en el extranjero
-- Pago en línea en el extranjero
-- Pago sin contacto
-- Bloqueo de la tarjeta (por defecto está "Desbloqueada", es posible "Bloquear" la tarjeta en cualquier momento).
-Para aprovecharla, seleccione la oferta que se ajuste a su perfil: </t>
-  </si>
-  <si>
-    <t>نتوفر بالتأكيد على بطاقة مصممة خصيصًا لكم.\\
-يوفر لكم بنك أفريقيا مجموعة واسعة من البطاقات البنكية والخدمات والخيارات المرتبطة بها عند الاشتراك في عرض مناسب.طرق دفع تتناسب مع احتياجاتكم اليومية، في المغرب وعلى الصعيد الدولي: الدفع عبر الإنترنت أو في المتاجر (بدون تماس) وسحب النقود من الشبابيك الأوتوماتيكية. اختاروا البطاقة البنكية التي ترقى لتوقعاتكم:\\
+Whether you’re a BANK OF AFRICA customer or not, with the reloadable "Family" bank card, you can transfer money in real time from abroad to a bank card in Morocco-whether it’s your own, or a friend or family member.\\
+What’s more, you can customize the way your card works, thanks to the "Card Parameters Management Service", accessible via BMCE DIRECT WEB and Mobile, which lets you control the configuration of your cards in real time by activating or deactivating them: \\
+Withdrawals in Morocco  \\
+POS payments in Morocco \\
+Online payments in Morocco \\
+Withdrawals abroad \\
+POS payments abroad \\
+Online payments abroad \\
+Contactless payments \\
+Card blocking (by default "Unblocked"; it may also be "Blocked" at any time).\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguro que tenemos una tarjeta perfecta para usted\\
+BANK OF AFRICA le ofrece una amplia gama de tarjetas bancarias, servicios y opciones asociadas suscribiéndose al paquete de su elección.\\
+Formas de pago adaptadas a sus necesidades cotidianas, en Marruecos y en el extranjero: pago en línea o en el comercio (sin contacto) y retirada de efectivo en los cajeros automáticos.\\
+ Elija la tarjeta bancaria más adecuada para usted: \\
+Tarjetas clásicas:\\
+No tan clásicas: estas tarjetas le dan acceso a toda una gama de servicios: reintegros en cajeros automáticos, pagos con tarjeta, pagos sin contacto, tanto en Marruecos como en el extranjero.\\
+Tarjetas Premium:\\
+Una experiencia a la altura de lo que se merece: eso es lo que le ofrecemos con las tarjetas bancarias Premium de BANK OF AFRICA. Empezando por Visa Oro, que le da acceso a un programa de ventajas comerciales y servicios de asistencia, así como a reintegros y pagos internacionales. También está la Visa Platinum, que ofrece mayores límites de pago y retirada en Marruecos y en el extranjero, una serie de atractivas ventajas (acceso VIP gratuito e ilimitado a 25 salas VIP de aeropuertos en Marruecos y en el extranjero, pertenencia al programa AIRPORTS LOUNGE KEY, descuentos en comercios, etc.) y acceso gratuito a una serie de servicios de seguros.\\
+Tarjetas de prepago:\\
+Tanto si es cliente del BANCO DE ÁFRICA como si no, con la tarjeta bancaria recargable "Family" podrá transferir su dinero del extranjero a una tarjeta bancaria en Marruecos en tiempo real. Su propia tarjeta o la de sus seres queridos.\\
+Además, puede personalizar el funcionamiento de su tarjeta utilizando el "servicio de gestión de los parámetros de la tarjeta", accesible a través de BMCE DIRECT WEB y Mobile, que le permite controlar en tiempo real los parámetros de sus tarjetas activándolos o desactivándolos: \\
+Retirada de fondos en Marruecos  \\
+Pago Electrónico (TPE) en Marruecos\\
+Pago en línea en Marruecos\\
+Retirada de fondos en el extranjero\\
+Pago Electrónico (TPE) en el extranjero\\
+Pago en línea en el extranjero\\
+Pago sin contacto\\
+Bloqueo de la tarjeta (por defecto está "Desbloqueada", es posible "Bloquear" la tarjeta en cualquier momento).\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نتوفر بالتأكيد على بطاقة مصممة خصيصًا لكم.\\
+يوفر لكم بنك أفريقيا مجموعة واسعة من البطاقات البنكية والخدمات والخيارات المرتبطة بها عند الاشتراك في عرض مناسب.\\
+طرق دفع تتناسب مع احتياجاتكم اليومية، في المغرب وعلى الصعيد الدولي: الدفع عبر الإنترنت أو في المتاجر (بدون تماس) وسحب النقود من الشبابيك الأوتوماتيكية.\\
+ اختاروا البطاقة البنكية التي ترقى لتوقعاتكم:\\
 البطاقات الكلاسيكية:\\
 ليست كلاسيكية بمعنى الكلمة: توفر لكم هذه البطاقات مجموعة متنوعة من الخدمات: السحب من الشبابيك الأتوماتيكية، الدفع بالبطاقة، الدفع بدون تماس، في المغرب وخارجه.\\
 بطاقات بريميوم:\\
-تجربة تستحقونها: توفر لكم البطاقات البنكية بريميوم من بنك أفريقيا تجربة مستحقة.أولا، بطاقات فيزا جولد Visa Gold: تتميز هذه البطاقة ببرنامج مزايا التجار وخدمات المساعدة، بالإضافة إلى خدمات السحب والدفع على الصعيد الدولي.
-ثمّ، بطاقة فيزا بلاتينوم Visa Platinum، التي توفر سقفي دفع وسحب أكبر في المغرب وعلى الصعيد الدولي، ومجموعة من المزايا الجذابة (ولوج مجاني وغير محدود إلى 25 صالة VIP في المطارات في المغرب وعلى الصعيد الدولي، انضمام إلى برنامج AIRPORTS LOUNGE KEY، تخفيضات لدى التجار...) والاستفادة المجانية من مجموعة من خدمات التأمين.\\
+تجربة تستحقونها: توفر لكم البطاقات البنكية بريميوم من بنك أفريقيا تجربة مستحقة.أولا، بطاقات فيزا جولد Visa Gold: تتميز هذه البطاقة ببرنامج مزايا التجار وخدمات المساعدة، بالإضافة إلى خدمات السحب والدفع على الصعيد الدولي.ثمّ، بطاقة فيزا بلاتينوم Visa Platinum، التي توفر سقفي دفع وسحب أكبر في المغرب وعلى الصعيد الدولي، ومجموعة من المزايا الجذابة (ولوج مجاني وغير محدود إلى 25 صالة VIP في المطارات في المغرب وعلى الصعيد الدولي، انضمام إلى برنامج AIRPORTS LOUNGE KEY، تخفيضات لدى التجار...) والاستفادة المجانية من مجموعة من خدمات التأمين.\\
 بطاقات مسبقة الأداء:\\
 سواء كنتم من زبناء بنك أفريقيا أم لا، مع البطاقة البنكية القابلة لإعادة الشحن "فاميلي" (Family)، يمكنكم تحويل أموالكم في الحين من الخارج إلى بطاقة بنكية في المغرب سواء كانت بطاقتكم أو بطاقة أحبائكم.\\
 بالإضافة إلى ذلك، يمكنكم تشخيص عمل بطاقتكم بفضل "خدمة إدارة إعدادات البطاقة" (service de gestion des paramètres carte)، المتاحة عبر BMCE DIRECT WEB وMobile التي تتيح لكم التحكم في إعدادات بطاقاتكم في الوقت الفعلي من خلال تفعيلها أو تعطيلها:\\
-- السحب في المغرب\\
-- الدفع عبر نقاط البيع في المغرب\\
-- الدفع عبر الإنترنت في المغرب\\
-- السحب في الخارج\\
-- الدفع عبر نقاط البيع في الخارج\\
-- الدفع عبر الإنترنت في الخارج\\
-- الدفع بدون تماس\\
-- قفل البطاقة (تكون "مفتوحة" بشكل افتراضي، ويمكن "قفل" البطاقة في أي وقت).\\
-للاستفادة من هذه الخدمات، اختاروا العرض الذي يتناسب مع ملفكم الشخصي: \\</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wij hebben de juiste kaart voor jou
-BANK OF AFRICA biedt je een breed scala aan bankkaarten, diensten en bijbehorende opties als je je abonneert op het pakket van je keuze.
-Betaalmethoden op maat naar gelang je dagelijkse behoeften, in Marokko en in het buitenland: online of in de winkel (contactloos) betalen en geld opnemen via geldautomaten.
- Kies de bankkaart die aan je behoeften voldoet: 
-Klassieke kaarten:
-Deze kaarten zijn niet zo klassiek: ze geven je toegang tot een brede selectie aan diensten: geldopnames bij geldautomaten, betalingen met een bankkaart, contactloze betalingen, in Marokko en in het buitenland.
-Premium kaarten:
-Een ervaring waar je recht op hebt: dat bieden wij je met de Premium bankkaarten van BANK OF AFRICA. 
-In de eerste plaats Visa Gold, waarmee je toegang krijgt tot een voordelenprogramma voor winkeliers en ondersteunende diensten, evenals internationale geldopnames en betalingen.
-Verder is er Visa Platinum, met hogere limieten voor betalingen en geldopnames in Marokko en in het buitenland, een reeks aantrekkelijke voordelen (gratis, onbeperkte VIP-toegang tot 25 luchthavenlounges in Marokko en in het buitenland, lidmaatschap van het AIRPORTS LOUNGE KEY-programma, gratis toegang tot een scala aan verzekeringsdiensten.
-Voorafbetaalde kaarten:
-Of je nu klant bent van BANK OF AFRICA of niet, met de herlaadbare bankkaart “Family” kun je in realtime geld overmaken vanuit het buitenland naar een bankkaart in Marokko. Met die van jou of van een van je familieleden.
-Bovendien kun je de werking van je kaart personaliseren dankzij de dienst “Servicebeheer van de kaartinstellingen”, toegankelijk via BMCE DIRECT WEB en Mobile, waarmee je de instellingen van je kaarten in realtime kunt beheren door ze te activeren of deactiveren: 
-•         Geld opnemen in Marokko  
-•         Betalen via betaalterminal in Marokko
-•         Online betalen in Marokko
-•         Geld opnemen in het buitenland
-•         Betalen via betaalterminal in buitenland
-•         Online betalen in het buitenland
-•         Contactloos betalen
-•         Blokkeren van de kaart (de kaart is standaard “gedeblokkeerd”, maar kan op elk moment worden “geblokkeerd”).
-Om hiervan gebruik te maken, selecteer je het aanbod dat bij je profiel past: </t>
-  </si>
-  <si>
-    <t>Siamo certi di avere una carta fatta appositamente per voi\\
+السحب في المغرب\\
+الدفع عبر نقاط البيع في المغرب\\
+الدفع عبر الإنترنت في المغرب\\
+السحب في الخارج\\
+الدفع عبر نقاط البيع في الخارج\\
+الدفع عبر الإنترنت في الخارج\\
+الدفع بدون تماس\\
+قفل البطاقة (تكون "مفتوحة" بشكل افتراضي، ويمكن "قفل" البطاقة في أي وقت).\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wij hebben de juiste kaart voor jou\\
+BANK OF AFRICA biedt je een breed scala aan bankkaarten, diensten en bijbehorende opties als je je abonneert op het pakket van je keuze.\\
+Betaalmethoden op maat naar gelang je dagelijkse behoeften, in Marokko en in het buitenland: online of in de winkel (contactloos) betalen en geld opnemen via geldautomaten.\\
+ Kies de bankkaart die aan je behoeften voldoet: \\
+Klassieke kaarten:\\
+Deze kaarten zijn niet zo klassiek: ze geven je toegang tot een brede selectie aan diensten: geldopnames bij geldautomaten, betalingen met een bankkaart, contactloze betalingen, in Marokko en in het buitenland.\\
+Premium kaarten:\\
+Een ervaring waar je recht op hebt: dat bieden wij je met de Premium bankkaarten van BANK OF AFRICA. In de eerste plaats Visa Gold, waarmee je toegang krijgt tot een voordelenprogramma voor winkeliers en ondersteunende diensten, evenals internationale geldopnames en betalingen. Verder is er Visa Platinum, met hogere limieten voor betalingen en geldopnames in Marokko en in het buitenland, een reeks aantrekkelijke voordelen (gratis, onbeperkte VIP-toegang tot 25 luchthavenlounges in Marokko en in het buitenland, lidmaatschap van het AIRPORTS LOUNGE KEY-programma, gratis toegang tot een scala aan verzekeringsdiensten.\\
+Voorafbetaalde kaarten:\\
+Of je nu klant bent van BANK OF AFRICA of niet, met de herlaadbare bankkaart “Family” kun je in realtime geld overmaken vanuit het buitenland naar een bankkaart in Marokko. Met die van jou of van een van je familieleden.\\
+Bovendien kun je de werking van je kaart personaliseren dankzij de dienst “Servicebeheer van de kaartinstellingen”, toegankelijk via BMCE DIRECT WEB en Mobile, waarmee je de instellingen van je kaarten in realtime kunt beheren door ze te activeren of deactiveren: \\
+Geld opnemen in Marokko  \\
+Betalen via betaalterminal in Marokko\\
+Online betalen in Marokko\\
+Geld opnemen in het buitenland\\
+Betalen via betaalterminal in buitenland\\
+Online betalen in het buitenland\\
+Contactloos betalen\\
+Blokkeren van de kaart (de kaart is standaard “gedeblokkeerd”, maar kan op elk moment worden “geblokkeerd”).\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siamo certi di avere una carta fatta appositamente per voi\\
 BANK OF AFRICA vi propone un’ampia gamma di carte bancarie, servizi e opzioni associate sottoscrivendo il pacchetto di vostra scelta.\\
-Modalità di pagamento adatte ai vostri bisogni quotidiani, in Marocco e all'estero: pagamenti online o in negozio (contactless) e prelievi di contanti presso gli sportelli automatici.\\
- Scegliete la carta bancaria che corrisponde alle vostre esigenze: \\
+Modalità di pagamento adatte ai vostri bisogni quotidiani, in Marocco e all’estero: pagamenti online o in negozio (contactless) e prelievi di contanti presso gli sportelli automatici.\\
+Scegliete la carta bancaria che corrisponde alle vostre esigenze: \\
 Le Carte Classiche:\\
-Non così classiche: queste carte danno accesso a tutta una serie di servizi: prelievi al bancomat, pagamenti con carta, pagamenti contactless, sia in Marocco che all'estero.\\
+Non così classiche: queste carte danno accesso a tutta una serie di servizi: prelievi al bancomat, pagamenti con carta, pagamenti contactless, sia in Marocco che all’estero.\\
 Le Carte Premium:\\
-Un’esperienza all’altezza di ciò che meritate: ecco cosa offrono le carte bancarie Premium di BANK OF AFRICA. 
-A partire da Visa Gold, che vi dà accesso a un programma di vantaggi per gli esercenti e a servizi di assistenza, nonché a prelievi e pagamenti internazionali.
-C'è poi la Visa Platinum, che offre limiti di pagamento e di prelievo più elevati in Marocco e all'estero, una serie di vantaggi interessanti (accesso VIP gratuito e illimitato a 25 lounge aeroportuali in Marocco e all'estero, adesione al programma AIRPORTS LOUNGE KEY, sconti per i commercianti, ecc) e l’accesso gratuito a una serie di servizi assicurativi.\\
+Un’esperienza all’altezza di ciò che meritate: ecco cosa offrono le carte bancarie Premium di BANK OF AFRICA. A partire da Visa Gold, che vi dà accesso a un programma di vantaggi per gli esercenti e a servizi di assistenza, nonché a prelievi e pagamenti internazionali. C’è poi la Visa Platinum, che offre limiti di pagamento e di prelievo più elevati in Marocco e all’estero, una serie di vantaggi interessanti (accesso VIP gratuito e illimitato a 25 lounge aeroportuali in Marocco e all’estero, adesione al programma AIRPORTS LOUNGE KEY, sconti per i commercianti, ecc) e l’accesso gratuito a una serie di servizi assicurativi.\\
 Le carte prepagate:\\
 Che siate o meno clienti di BANK OF AFRICA, con la carta bancaria ricaricabile “Family”, potrete trasferire in tempo reale l’importo che desiderate dall’estero verso una carta in Marocco. La vostra, o quella di uno dei vostri cari.\\
 Inoltre, potrete personalizzare il funzionamento della vostra carta grazie al “servizio di gestione dei parametri della carta”, accessibile attraverso BMCE DIRECT WEB e Mobile che vi permette di controllare, attivandola o disattivandola, i parametri della vostra carta in tempo reale. \\
-•        Prelievo in Marocco  \\
-•        Pagamento tramite POS in Marocco\\
-•        Pagamento online in Marocco\\
-•        Prelievo all’estero\\
-•        Pagamento tramite POS all’estero\\
-•        Pagamento online all’estero\\
-•        Contactless (pagamento senza contatto)\\
-•        Blocco della carta (“Sbloccata” come impostazione predefinita, può essere “Bloccata” in qualsiasi momento).\\
-Per approfittarne, selezionare l’offerta che corrisponde maggiormente alle vostre necessità: \\</t>
-  </si>
-  <si>
-    <t>Wir haben garantiert die richtige Karte für Sie.
-Die BANK OF AFRICA bietet Ihnen eine breite Palette an Bankkarten, Dienstleistungen und dazugehörigen Optionen, indem Sie das Angebotspaket Ihrer Wahl abonnieren.
-Zahlungsmethoden, die auf Ihre täglichen Bedürfnisse zugeschnitten sind, sowohl in Marokko als auch im Ausland: Online-Zahlungen oder Zahlungen in Geschäften (kontaktlos) und Bargeldabhebungen an Geldautomaten.
-Wählen Sie die Bankkarte, die Ihren Erwartungen entspricht:
-Klassische Karten:
-So klassisch nun auch wieder nicht: Mit diesen Karten haben Sie Zugang zu einer ganzen Reihe von Dienstleistungen: Abhebungen am Geldautomaten, Kartenzahlungen, kontaktlose Zahlungen, sowohl in Marokko als auch im Ausland.
-Premium-Karten:
-Eine Erfahrung, die dem entspricht, was Sie verdienen: Das bieten wir Ihnen mit den Premium-Bankkarten der BANK OF AFRICA.
-Angefangen bei Visa Gold, die Ihnen Zugang zu einem Händler-Vorteilsprogramm und Support-Leistungen sowie zu internationalen Abhebungen und Zahlungen bietet.
-Dann gibt es die Visa Platinum, die höhere Zahlungs- und Abhebungslimits in Marokko und im Ausland, eine Reihe attraktiver Vorteile (kostenloser, unbegrenzter VIP-Zugang zu 25 Flughafen-Lounges in Marokko und im Ausland, Mitgliedschaft im AIRPORTS LOUNGE KEY-Programm, Händlerrabatte usw.) sowie kostenlosen Zugang zu einer Reihe von Versicherungsleistungen bietet.
-Prepaid-Karten:
-Ob Sie Kunde der BANK OF AFRICA sind oder nicht, mit der aufladbaren „Family“-Bankkarte können Sie in Echtzeit Ihr Geld aus dem Ausland auf eine Bankkarte in Marokko überweisen.
-Auf Ihre eigene oder auf die Ihrer Familienmitglieder.
-Darüber hinaus können Sie die Funktionsweise Ihrer Karte dank des „Verwaltungsdienstes für Karteneinstellungen“, der über BMCE DIRECT WEB und Mobile zugänglich ist, individuell anpassen, indem Sie die Einstellungen Ihrer Karten in Echtzeit kontrollieren und sie aktivieren oder deaktivieren:
-•     Abheben in Marokko  
-•     TPE-Zahlung in Marokko
-•     Online-Zahlung in Marokko
-•     Abheben im Ausland
-•     TPE-Zahlung im Ausland
-•     Online-Zahlung im Ausland
-•     Contactless (Kontaktloses Bezahlen)
-•     Sperren der Karte (standardmäßig „entsperrt“, die Karte kann jedoch jederzeit „gesperrt“ werden).
-Um davon zu profitieren, wählen Sie das Angebot, das Ihrem Profil entspricht:</t>
+Prelievo in Marocco  \\
+Pagamento tramite POS in Marocco\\
+Pagamento online in Marocco\\
+Prelievo all’estero\\
+Pagamento tramite POS all’estero\\
+Pagamento online all’estero\\
+Contactless (pagamento senza contatto)\\
+Blocco della carta (“Sbloccata” come impostazione predefinita, può essere “Bloccata” in qualsiasi momento).\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir haben garantiert die richtige Karte für Sie.\\
+Die BANK OF AFRICA bietet Ihnen eine breite Palette an Bankkarten, Dienstleistungen und dazugehörigen Optionen, indem Sie das Angebotspaket Ihrer Wahl abonnieren.\\
+Zahlungsmethoden, die auf Ihre täglichen Bedürfnisse zugeschnitten sind, sowohl in Marokko als auch im Ausland: Online-Zahlungen oder Zahlungen in Geschäften (kontaktlos) und Bargeldabhebungen an Geldautomaten.\\
+Wählen Sie die Bankkarte, die Ihren Erwartungen entspricht:\\
+Klassische Karten:\\
+So klassisch nun auch wieder nicht: Mit diesen Karten haben Sie Zugang zu einer ganzen Reihe von Dienstleistungen: Abhebungen am Geldautomaten, Kartenzahlungen, kontaktlose Zahlungen, sowohl in Marokko als auch im Ausland.\\
+Premium-Karten:\\
+Eine Erfahrung, die dem entspricht, was Sie verdienen: Das bieten wir Ihnen mit den Premium-Bankkarten der BANK OF AFRICA. Angefangen bei Visa Gold, die Ihnen Zugang zu einem Händler Vorteilsprogramm und Support-Leistungen sowie zu internationalen Abhebungen und Zahlungen bietet. Dann gibt es die Visa Platinum, die höhere Zahlungs- und Abhebungslimits in Marokko und im Ausland, eine Reihe attraktiver Vorteile (kostenloser, unbegrenzter VIP-Zugang zu 25 Flughafen-Lounges in Marokko und im Ausland, Mitgliedschaft im AIRPORTS LOUNGE KEY-Programm, Händlerrabatte usw.) sowie kostenlosen Zugang zu einer Reihe von Versicherungsleistungen bietet.\\
+Prepaid-Karten:\\
+Ob Sie Kunde der BANK OF AFRICA sind oder nicht, mit der aufladbaren „Family“-Bankkarte können Sie in Echtzeit Ihr Geld aus dem Ausland auf eine Bankkarte in Marokko überweisen. Auf Ihre eigene oder auf die Ihrer Familienmitglieder.\\ 
+Darüber hinaus können Sie die Funktionsweise Ihrer Karte dank des „Verwaltungsdienstes für Karteneinstellungen“, der über BMCE DIRECT WEB und Mobile zugänglich ist, individuell anpassen, indem Sie die Einstellungen Ihrer Karten in Echtzeit kontrollieren und sie aktivieren oder deaktivieren:\\
+Abheben in Marokko  \\
+TPE-Zahlung in Marokko\\
+Online-Zahlung in Marokko\\
+Abheben im Ausland\\
+TPE-Zahlung im Ausland\\
+Online-Zahlung im Ausland\\
+Contactless (Kontaktloses Bezahlen)\\
+Sperren der Karte (standardmäßig „entsperrt“, die Karte kann jedoch jederzeit „gesperrt“ werden).\\
+</t>
   </si>
   <si>
     <t>OUVRIR UN COMPTE GRATUIT</t>
@@ -398,59 +387,22 @@
 short#1152\\
 short#1153\\
 short#1154\\
-short#1155\\</t>
-  </si>
-  <si>
-    <t>Avec Agence Directe de BANK OF AFRICA, devenez client et profitez des offres exclusives du moment !\\
-Offres Promo\\
-Compte chèques sans frais de tenue de compte\\
-frais pour les paiements à l’étranger\\
-Les + Agence Directe ou Exclusivités Agence Directe\\
-1.        Une Ouverture de compte bancaire en ligne en quelques clics ;\\
-2.        Des offres exclusives adaptées à vos besoins ;\\
-3.        Un service client 7 j/7 ;\\ 
-4.        La gestion de votre compte en toute autonomie depuis ‘’BMCE DIRECT’’ : 24h/24, 7J/7.\\
-Ouvrez votre compte bancaire en quelques minutes seulement !\\
-C’est rapide et 100 % sécurisé : toutes vos informations personnelles sont protégées. \\
-Bénéficiez de l’offre forfaitaire qui vous correspond :\\
-Particuliers Résidents au Maroc\\
-Accédez en quelques clics à l’essentiel des produits et services bancaires avec : Pack Azur, Pack Gold, Pack Platinum.\\
-Marocains Résidents à l’Etranger\\  
-Ouvrez votre compte au Maroc où que vous soyez et sans vous déplacer et bénéficiez d’un éventail de services bancaires pour gérer votre compte au quotidien et bien plus : Pack Blue, Pack First.\\
-Etudiants Résidents au Maroc\\
-Bénéficiez d’un compte bancaire en ligne et de l’essentiel des produits et services bancaire gratuitement pendant tout votre cursus scolaire avec : Pack Jeune campus \\
-Professionnels\\ 
-Ouvrez votre un compte chèques à distance pour gérer votre budget personnel ou familial : Pack essentiel, Pack Classic et Pack Gold.\\
-Profitez d’un conseiller dédié qui vous accompagne en agence ou en ligne.\\
-Derrière chacune de vos demandes, c'est un vrai conseiller qui s’attache à vous répondre : \\
-•        Par téléphone : vous pouvez contacter nos conseillers 7j/7, de 8h à 20h (heure marocaine) : +212.5.20.39.30.30 ;\\
-•        Par email: agencedirecte@bankofafrica.ma\\
-•        Par WhatsApp : +212.6.45.40.00.00\\
-•        Par chat en ligne :  24h/24.\\
-Gérez votre budget en un clin d’œil avec votre appli BMCE Direct\\
-Consultez votre solde, réalisez des virements instantanés, réglez vos factures, activez votre dotation et payez sans frais vos transactions e-commerce international et vos achats TPE à l’étranger.
-Grâce à votre appli ou espace en ligne BMCE Direct, suivez toutes vos opérations bancaires en temps réel et en toute simplicité.\\
-Pourquoi ouvrir votre compte en ligne ?\\
-L’ouverture de compte en ligne présente 3 avantages clés :\\
-1.        Ouvrir un compte sans se déplacer, à partir du Maroc ou de l’étranger\\
-2.        Bénéficier d’un compte au sein de l’agence physique de son choix\\
-3.        Profiter de gratuités, de remises et d’offres avantageuses disponibles sur le site agencedirecte.ma.\\
-Comment souscrire à nos offres ?\\
-Les 3 étapes pour ouvrir votre compte : 
-SIMPLE, RAPIDE ET GRATUIT\\</t>
-  </si>
-  <si>
-    <t>Become a client of BANK OF AFRICA's Agence Directe and take advantage of these exclusive offers! \\
+short#1155\\
+short#1156\\</t>
+  </si>
+  <si>
+    <t>Become a client of BANK OF AFRICA’s Agence Directe and take advantage of these exclusive offers! \\
 Promo Offers\\
-Checking account with no service charges for payments abroad\\
-+ Agence Directe Benefits or Agence Directe Exclusive Features\\
-1.        Open a bank account online in just a few clicks\\
-2.        Exclusive offers tailored to your needs\\
-3.        24/7 customer service\\
-4.        Manage your account independently from "BMCE DIRECT": 24 hours a day, 7 days a week.\\
+Checking account with no service charges\\
+0 fees for payments abroad\\
+Agence Directe Benefits or Agence Directe Exclusive Features\\
+Open a bank account online in just a few clicks\\
+Exclusive offers tailored to your needs\\
+24/7 customer service\\
+Manage your account independently from "BMCE DIRECT": 24 hours a day, 7 days a week.\\
 Open your bank account in just a few minutes!\\
-It's fast and 100% secure: all your personal information is protected.\\
-Choose the package that's right for you:\\
+It’s fast and 100% secure: all your personal information is protected.\\
+Choose the package that’s right for you:\\
 Individuals Residing in Morocco\\
 Access the essentials of banking products and services in just a few clicks with: Blue Pack, Gold Pack, Platinum Pack.\\
 Moroccans Residing Abroad\\  
@@ -461,73 +413,70 @@
 Open a checking account remotely to manage your personal or family budget: Essential Pack, Classic Pack, and Gold Pack.\\
 Receive assistance from a dedicated advisor, either at your branch or online.\\
 Every time you make a request, one of our advisors is there to help you: \\
-- By phone: you can contact our advisors 7 days a week, from 8am to 8pm (Moroccan time): +212.5.20.39.30.30\\
-- By email: agencedirecte@bankofafrica.ma\\
-- By WhatsApp: +212.6.45.40.00.00\\
-- By online chat: 24 hours a day.\\
+By phone: you can contact our advisors 7 days a week, from 8am to 8pm (Moroccan time): +212.5.20.39.30.30\\
+By email: agencedirecte@bankofafrica.ma\\
+By WhatsApp: +212.6.45.40.00.00\\
+By online chat: 24 hours a day.\\
 Manage your budget in the blink of an eye with your BMCE Direct app\\
-Check your balance, make instant transfers, pay your bills, set up your account, and pay your international e-commerce transactions and TPE purchases abroad free of charge.
-Thanks to your BMCE Direct app or online space, you can easily track all your banking transactions in real time. \\
+Check your balance, make instant transfers, pay your bills, set up your account, and pay your international e-commerce transactions and TPE purchases abroad free of charge.Thanks to your BMCE Direct app or online space, you can easily track all your banking transactions in real time. \\
 Why open your account online?\\
 There are 3 key advantages to opening an account online: \\
-1.        Open an account from anywhere in Morocco or abroad;\\
-2.        Open an account at the branch of your choice;\\
-3.        Access our free services, discounts, and special offers available on the agencedirecte.ma website.\\
+Open an account from anywhere in Morocco or abroad;\\
+Open an account at the branch of your choice;\\
+Access our free services, discounts, and special offers available on the agencedirecte.ma website.\\
 How do I subscribe to these offers?\\
-The 3 steps to opening your account: 
-SIMPLE, FAST, AND FREE\\</t>
-  </si>
-  <si>
-    <t>¡Hágase cliente de "Agence Directe" (Sucursal directa) de BANK OF AFRICA y benefíciese de ofertas exclusivas!
-Ofertas promocionales
-Cuenta cheque sin gastos de gestión
-comisiones por pagos en el extranjero
-Los  + Agence Directe o Agence Directe Exclusivités 
-1.        Abra una cuenta bancaria en línea con sólo unos clics;
-2.        Ofertas exclusivas adaptadas a sus necesidades;
-3.        Servicio de atención al cliente 7 días a la semana; 
-4.        Gestione su cuenta independientemente de "BMCE DIRECT": 24 horas al día, 7 días a la semana.
-¡Abra su cuenta bancaria en sólo unos minutos!
-Es rápido y 100 % seguro: toda su información personal está protegida. 
-Aproveche el paquete que más le convenga:
-Particulares residentes en Marruecos 
-Acceda a lo esencial de los productos y servicios bancarios en unos pocos clics con: Pack Azur, Pack Oro, Pack Platino.
-Marroquíes residentes en el extranjero  
-Abra su cuenta en Marruecos esté donde esté, sin tener que desplazarse, y benefíciese de una serie de servicios bancarios para gestionar su cuenta día a día y mucho más: Pack Blue, Pack First.
-Estudiantes residentes en Marruecos 
-Obtenga gratuitamente una cuenta bancaria en línea y todos los productos y servicios bancarios esenciales durante sus estudios con: Pack Campus Joven 
-Profesionales 
-Abra una cuenta cheque a distancia para gestionar su presupuesto personal o familiar: Pack essentiel, Pack Classic y Pack Gold.
-Aproveche las ventajas de un asesor especializado que puede ayudarle en la sucursal o en línea.
-Detrás de cada una de sus solicitudes hay un asesor real que se compromete a responder a sus preguntas: 
-- Por teléfono: puede ponerse en contacto con nuestros asesores los 7 días de la semana, de 8.00 a 20.00 (hora marroquí): +212.5.20.39.30.30 ;
-- Por correo electrónico: agencedirecte@bankofafrica.ma;
-- Por WhatsApp: +212.6.45.40.00.00 ;
-- Por chat en línea:  24 h
-Gestione su presupuesto en un abrir y cerrar de ojos con su aplicación BMCE Direct
-Consulte su saldo, realice transferencias instantáneas, pague sus facturas, active su dotación y abone gratuitamente sus transacciones internacionales de comercio electrónico y sus compras TPE en el extranjero.
-Utilice su aplicación BMCE Direct o su espacio en línea para seguir todas sus operaciones bancarias fácilmente y en tiempo real. 
-¿Por qué abrir su cuenta en línea?
-Abrir una cuenta en línea tiene 3 ventajas fundamentales: 
-1.        Abra una cuenta desde cualquier lugar de Marruecos o del extranjero;
-2.        Una cuenta en la sucursal de su elección;
-3.        Aproveche los regalos, descuentos y ofertas especiales disponibles en la página web agencedirecte.ma.
-¿Cómo puedo suscribirme a nuestras ofertas?
-Los 3 pasos para abrir su cuenta: 
-SENCILLA, RÁPIDA Y GRATUITA</t>
+The 3 steps to opening your account: SIMPLE, FAST, AND FREE\\</t>
+  </si>
+  <si>
+    <t>¡Hágase cliente de "Agence Directe" (Sucursal directa) de BANK OF AFRICA y benefíciese de ofertas exclusivas!\\
+Ofertas promocionales\\
+Cuenta cheque sin gastos de gestión \\
+0 comisiones por pagos en el extranjero\\
+Los Agence Directe o Agence Directe Exclusivités \\
+Abra una cuenta bancaria en línea con sólo unos clics;\\
+Ofertas exclusivas adaptadas a sus necesidades;\\
+Servicio de atención al cliente 7 días a la semana; \\
+Gestione su cuenta independientemente de "BMCE DIRECT": 24 horas al día, 7 días a la semana.\\
+¡Abra su cuenta bancaria en sólo unos minutos!\\
+Es rápido y 100 % seguro: toda su información personal está protegida. \\
+Aproveche el paquete que más le convenga:\\
+Particulares residentes en Marruecos\\ 
+Acceda a lo esencial de los productos y servicios bancarios en unos pocos clics con: Pack Azur, Pack Oro, Pack Platino.\\
+Marroquíes residentes en el extranjero\\ 
+Abra su cuenta en Marruecos esté donde esté, sin tener que desplazarse, y benefíciese de una serie de servicios bancarios para gestionar su cuenta día a día y mucho más: Pack Blue, Pack First.\\
+Estudiantes residentes en Marruecos \\
+Obtenga gratuitamente una cuenta bancaria en línea y todos los productos y servicios bancarios esenciales durante sus estudios con: Pack Campus Joven \\
+Profesionales \\
+Abra una cuenta cheque a distancia para gestionar su presupuesto personal o familiar: Pack essentiel, Pack Classic y Pack Gold.\\
+Aproveche las ventajas de un asesor especializado que puede ayudarle en la sucursal o en línea.\\
+Detrás de cada una de sus solicitudes hay un asesor real que se compromete a responder a sus preguntas: \\
+Por teléfono: puede ponerse en contacto con nuestros asesores los 7 días de la semana, de 8.00 a 20.00 (hora marroquí): +212.5.20.39.30.30 ;\\
+Por correo electrónico: agencedirecte@bankofafrica.ma;\\
+Por WhatsApp: +212.6.45.40.00.00 ;\\
+Por chat en línea:  24 h\\
+Gestione su presupuesto en un abrir y cerrar de ojos con su aplicación BMCE Direct\\
+Consulte su saldo, realice transferencias instantáneas, pague sus facturas, active su dotación y abone gratuitamente sus transacciones internacionales de comercio electrónico y sus compras TPE en el extranjero. Utilice su aplicación BMCE Direct o su espacio en línea para seguir todas sus operaciones bancarias fácilmente y en tiempo real. \\
+¿Por qué abrir su cuenta en línea?\\
+Abrir una cuenta en línea tiene 3 ventajas fundamentales: \\
+Abra una cuenta desde cualquier lugar de Marruecos o del extranjero;\\
+Una cuenta en la sucursal de su elección;\\
+Aproveche los regalos, descuentos y ofertas especiales disponibles en la página web agencedirecte.ma.\\
+¿Cómo puedo suscribirme a nuestras ofertas?\\
+Los 3 pasos para abrir su cuenta: SENCILLA, RÁPIDA Y GRATUITA\\</t>
   </si>
   <si>
     <t>مع الوكالة المباشرة Agence Directe من بنك أفريقيا، انظموا لقائمة زبنائنا واستفيدوا من العروض الحصرية الحالية!\\
 عروض ترويجية\\
 حساب شيكات بدون رسوم تدبير الحساب\\
-رسوم على الدفع في الخارج\\
+0 رسوم على الدفع في الخارج\\
 مزايا أو حصريات الوكالة المباشرة Agence Directe:\\
-1. فتح حساب بنكي عبر الإنترنت في بضع نقرات؛\\
-2. عروض حصرية تناسب احتياجاتكم؛\\
-3. خدمة زبناء 7 أيام في الأسبوع؛\\
-4. إدارة حسابكم بشكل مستقل عبر "BMCE DIRECT": على مدار الساعة، طوال أيام الأسبوع.\\
+فتح حساب بنكي عبر الإنترنت في بضع نقرات؛\\
+عروض حصرية تناسب احتياجاتكم؛\\
+خدمة زبناء 7 أيام في الأسبوع؛\\
+إدارة حسابكم بشكل مستقل عبر "BMCE DIRECT": على مدار الساعة، طوال أيام الأسبوع.\\
 افتحوا حسابكم البنكي في بضع دقائق فقط!\\
-بشكل سريع وآمن بنسبة 100٪: كما أن جميع معلوماتكم الشخصية محمية.استفيدوا من العرض الشامل الذي يناسبكم:\\
+بشكل سريع وآمن بنسبة 100٪: كما أن جميع معلوماتكم الشخصية محمية.\\
+استفيدوا من العرض الشامل الذي يناسبكم:\\
 الأفراد المقيمون في المغرب\\
 احصلوا ببضع نقرات على المنتجات والخدمات البنكية مع: باقة أزور Azur، باقة غولد Gold، وباقة بلاتينوم Platinum.\\
 المغاربة المقيمون في الخارج  \\
@@ -538,69 +487,67 @@
 افتحوا حساب شيكات عن بُعد لتدبير ميزانيتكم الشخصية أو العائلية مع: باقة إيسونسييل Pack essentiel، باقة كلاسيك Pack Classic، وباقة غولد Pack Gold.\\
 استفيدوا من مستشار مخصص يواكبكم في الوكالة أو عبر الإنترنت.\\
 بعد كل طلب تتقدمون به، نوفر مستشارا يلتزم بالرد عليكم:\\
-• عبر الهاتف: يمكنكم الاتصال بمستشارينا 7 أيام في الأسبوع، من الساعة 8 صباحًا إلى الساعة 8 مساءً (بتوقيت المغرب): +212.5.20.39.30.30؛\\
-• عبر البريد الإلكتروني: agencedirecte@bankofafrica.ma؛\\
-• عبر تطبيق واتساب: +212.6.45.40.00.00؛\\
-• عبر الدردشة عبر الإنترنت: على مدار الساعة، 24/7.\\
-قوموا بتدبير ميزانيتكم بسهولة عبر تطبيقكم BMCE Direct وكذا استعراض رصيدكم، والقيام بتحويلات فورية، وتسديد فواتيركم، وتفعيل خدماتكم، والدفع بدون رسوم معاملات التجارة الإلكترونية الدولية ومشترياتكم عبر نقاط البيع الإلكتروني في الخارج.
-من خلال تطبيقكم أو الفضاء الخاص بكم على الإنترنت، BMCE Direct، يمكنكم تتبع جميع عملياتكم البنكية في الوقت الفعلي وبكل سهولة. \\
+عبر الهاتف: يمكنكم الاتصال بمستشارينا 7 أيام في الأسبوع، من الساعة 8 صباحًا إلى الساعة 8 مساءً (بتوقيت المغرب): +212.5.20.39.30.30؛\\
+عبر البريد الإلكتروني: agencedirecte@bankofafrica.ma؛\\
+عبر تطبيق واتساب: +212.6.45.40.00.00؛\\
+عبر الدردشة عبر الإنترنت: على مدار الساعة، 24/7.\\
+قوموا بتدبير ميزانيتكم بسهولة عبر تطبيقكم BMCE Direct \\
+وكذا استعراض رصيدكم، والقيام بتحويلات فورية، وتسديد فواتيركم، وتفعيل خدماتكم، والدفع بدون رسوم معاملات التجارة الإلكترونية الدولية ومشترياتكم عبر نقاط البيع الإلكتروني في الخارج. من خلال تطبيقكم أو الفضاء الخاص بكم على الإنترنت، BMCE Direct، يمكنكم تتبع جميع عملياتكم البنكية في الوقت الفعلي وبكل سهولة. \\
 لماذا يجب عليكم فتح حسابكم البنكي عبر الإنترنت؟\\
 يوفر فتح حساب بنكي عبر الإنترنت ثلاثة مزايا رئيسية:\\
-1. القدرة على فتح حساب دون الحاجة للتنقل، سواء كنتم في المغرب أو في الخارج؛\\
-2. الاستفادة من حساب في وكالة بنكية من اختياركم؛\\
-3. الاستفادة من الخدمات المجانية والتخفيضات والعروض المميزة المتوفرة على موقع agencedirecte.ma.\\
-كيف يمكنكم الاشتراك في عروضنا؟\
-الخطوات الثلاث لفتح حسابكم: 
-بسيطة وسريعة ومجانية\\</t>
-  </si>
-  <si>
-    <t>Word klant via Agence Directe van BANK OF AFRICA en profiteer van de exclusieve aanbiedingen van het moment!
-Promo-aanbiedingen
-Chequerekening zonder beheerskosten, kosten voor betalingen naar het buitenland
-De voordelen van Agence Directe of Exclusieve aanbiedingen van Agence Directe
-1.        Online een bankrekening openen in slechts een paar klikken;
-2.        Exclusieve aanbiedingen afgestemd op je behoeften;
-3.        Klantenservice 7 dagen per week; 
-4.        Beheer je rekening onafhankelijk van “BMCE DIRECT”: 24 uur per dag, 7 dagen per week.
-Open je bankrekening in slechts enkele minuten!
-Het is snel en 100% veilig: al je persoonsgegevens zijn beschermd. 
-Profiteer van het pakket dat het beste bij je past:
-Particulieren die in Marokko wonen 
-Toegang tot de essentiële bankproducten en -diensten in slechts een paar klikken met:  Pack Azur, Pack Gold, Pack Platinum.
-Marokkanen die in het buitenland wonen  
-Open je rekening in Marokko waar je ook bent, zonder dat je van huis hoeft te gaan, en profiteer van een scala aan bankdiensten waarmee je je rekening dagelijks kunt beheren en nog veel meer: Pack Blue, Pack First.
-Studenten die in Marokko wonen 
-Profiteer van een online bankrekening en gratis van de belangrijkste bankproducten en -diensten tijdens je studie met: Pack Jeune campus 
-Professionals 
-Online een chequerekening openen om je persoonlijke of gezinsbudget te beheren:  Pack essentiel, Pack Classic en Pack Gold.
-Profiteer van een toegewijde adviseur die je op het kantoor of online helpt.
-Voor al je aanvragen is er een echte adviseur die je graag te woord staat: 
-•        Telefonisch: je kunt onze adviseurs 7 dagen per week, van 8.00 tot 20.00 uur (Marokkaanse tijd) bereiken: +212.5.20.39.30.30;
-•        Per e-mail: agencedirecte@bankofafrica.ma;
-•        Via WhatsApp: +212.6.45.40.00.00;
-•        Via chat online:  24 uur per dag.
-Beheer je budget in een oogwenk met je BMCE Direct-app
-Controleer je saldo, voer meteen overschrijvingen uit, betaal je rekeningen, activeer je bijschrijvingen en betaal gratis je internationale e-commerce transacties en je aankopen via betaalterminal in het buitenland.
-Dankzij je BMCE Direct app of online kun je al je banktransacties gemakkelijk in realtime volgen. 
-Waarom moet je een rekening online openen?
-Er zijn 3 belangrijke voordelen om een online rekening te openen: 
-1.        Open een rekening vanuit huis, uit Marokko of uit het buitenland;
-2.        Je kunt een rekening openen bij het filiaal van je keuze;
-3.        Profiteer van gratis aanbiedingen, kortingen en speciale acties op de website agencedirecte.ma.
-Je inschrijven voor onze aanbiedingen
-De 3 stappen om je rekening te openen: 
-EENVOUDIG, SNEL EN GRATIS</t>
-  </si>
-  <si>
-    <t>Diventate clienti dell'Agence Directe de BANK OF AFRICA e beneficiate di offerte esclusive!\\
+القدرة على فتح حساب دون الحاجة للتنقل، سواء كنتم في المغرب أو في الخارج؛\\
+الاستفادة من حساب في وكالة بنكية من اختياركم؛\\
+الاستفادة من الخدمات المجانية والتخفيضات والعروض المميزة المتوفرة على موقع agencedirecte.ma.\\
+كيف يمكنكم الاشتراك في عروضنا؟\\
+الخطوات الثلاث لفتح حسابكم: بسيطة وسريعة ومجانية\\</t>
+  </si>
+  <si>
+    <t>Word klant via Agence Directe van BANK OF AFRICA en profiteer van de exclusieve aanbiedingen van het moment!\\
+Promo-aanbiedingen\\
+Chequerekening zonder beheerskosten\\
+0 kosten voor betalingen naar het buitenland\\
+De voordelen van Agence Directe of Exclusieve aanbiedingen van Agence Directe\\
+Online een bankrekening openen in slechts een paar klikken;\\
+Exclusieve aanbiedingen afgestemd op je behoeften;\\
+Klantenservice 7 dagen per week; \\
+Beheer je rekening onafhankelijk van “BMCE DIRECT”: 24 uur per dag, 7 dagen per week.\\
+Open je bankrekening in slechts enkele minuten!\\
+Het is snel en 100% veilig: al je persoonsgegevens zijn beschermd. \\
+Profiteer van het pakket dat het beste bij je past:\\
+Particulieren die in Marokko wonen \\
+Toegang tot de essentiële bankproducten en -diensten in slechts een paar klikken met:  Pack Azur, Pack Gold, Pack Platinum.\\
+Marokkanen die in het buitenland wonen  \\
+Open je rekening in Marokko waar je ook bent, zonder dat je van huis hoeft te gaan, en profiteer van een scala aan bankdiensten waarmee je je rekening dagelijks kunt beheren en nog veel meer: Pack Blue, Pack First.\\
+Studenten die in Marokko wonen \\
+Profiteer van een online bankrekening en gratis van de belangrijkste bankproducten en -diensten tijdens je studie met: Pack Jeune campus \\
+Professionals \\
+Online een chequerekening openen om je persoonlijke of gezinsbudget te beheren:  Pack essentiel, Pack Classic en Pack Gold.\\
+Profiteer van een toegewijde adviseur die je op het kantoor of online helpt.\\
+Voor al je aanvragen is er een echte adviseur die je graag te woord staat: \\
+Telefonisch: je kunt onze adviseurs 7 dagen per week, van 8.00 tot 20.00 uur (Marokkaanse tijd) bereiken: +212.5.20.39.30.30;\\
+Per e-mail: agencedirecte@bankofafrica.ma;\\
+Via WhatsApp: +212.6.45.40.00.00;\\
+Via chat online:  24 uur per dag.\\
+Beheer je budget in een oogwenk met je BMCE Direct-app\\
+Controleer je saldo, voer meteen overschrijvingen uit, betaal je rekeningen, activeer je bijschrijvingen en betaal gratis je internationale e-commerce transacties en je aankopen via betaalterminal in het buitenland. Dankzij je BMCE Direct app of online kun je al je banktransacties gemakkelijk in realtime volgen. \\
+Waarom moet je een rekening online openen?\\
+Er zijn 3 belangrijke voordelen om een online rekening te openen: \\
+Open een rekening vanuit huis, uit Marokko of uit het buitenland;\\
+Je kunt een rekening openen bij het filiaal van je keuze;\\
+Profiteer van gratis aanbiedingen, kortingen en speciale acties op de website agencedirecte.ma.\\
+Je inschrijven voor onze aanbiedingen\\
+De 3 stappen om je rekening te openen: EENVOUDIG, SNEL EN GRATIS\\</t>
+  </si>
+  <si>
+    <t>Diventate clienti dell’Agence Directe de BANK OF AFRICA e beneficiate di offerte esclusive!\\
 Offerte Promo\\
 Conto corrente con assegno senza spese per la tenuta conto\\
-spese per i pagamenti all’estero\\
-Le + Agence Directe o Esclusività Agence Directe\\
-1.        Apertura del conto bancario online in pochi click;\\
-2.        Offerte esclusive adatte ai vostri bisogni;\\
-3.        Servizio clienti 7 giorni su 7;\\
-4.        Gestione del vostro conto in totale autonomia attraverso “BMCE DIRECT”: 24 ore su 24, 7 giorni su 7.\\
+0 spese per i pagamenti all’estero\\
+Le Agence Directe o Esclusività Agence Directe\\
+Apertura del conto bancario online in pochi click;\\
+Offerte esclusive adatte ai vostri bisogni;\\
+Servizio clienti 7 giorni su 7;\\
+Gestione del vostro conto in totale autonomia attraverso “BMCE DIRECT”: 24 ore su 24, 7 giorni su 7.\\
 Aprite il vostro conto bancario in pochi minuti!\\
 Veloce e sicuro al 100%: protezione totale dei vostri dati personali. \\
 Approfittate del pacchetto più adatto a voi:\\
@@ -614,67 +561,56 @@
 Aprite un conto corrente a distanza per gestire il vostro bilancio personale o familiare: Pack essentiel, Pack Classic e Pack Gold.\\
 Approfittate di un consulente a vostra disposizione sia in filiale che online.\\
 Dietro ogni vostra domanda c’è un vero consulente che si occuperà di offrirvi la risposta che cercate: \\
-•        Via telefonica: contattate i nostri consulenti 7 giorni su 7, dalle ore 8 alle ore 20 (ora marocchina):  +212.5.20.39.30.30;\\
-•        Via e-mail: agencedirecte@bankofafrica.ma;\\
-•        Via WhatsApp: +212.6.45.40.00.00;\\
-•        Attraverso la chat online:  24 ore su 24.\\
+Via telefonica: contattate i nostri consulenti 7 giorni su 7, dalle ore 8 alle ore 20 (ora marocchina):  +212.5.20.39.30.30;\\
+Via e-mail: agencedirecte@bankofafrica.ma;\\
+Via WhatsApp: +212.6.45.40.00.00;\\
+Attraverso la chat online:  24 ore su 24.\\
 Gestite le vostre finanze in un batter d’occhio con l’app BMCE Direct\\
-Controllate il vostro saldo, effettuate bonifici istantanei, pagate le vostre bollette, attivate la vostra dotazione e pagate gratuitamente le vostre transazioni internazionali di e-commerce e gli acquisti tramite POS all'estero.
-Grazie alla vostra app o all’area online BMCE Direct, seguite tutte le vostre operazioni bancarie in modo semplice e in tempo reale. \\
+Controllate il vostro saldo, effettuate bonifici istantanei, pagate le vostre bollette, attivate la vostra dotazione e pagate gratuitamente le vostre transazioni internazionali di e-commerce e gli acquisti tramite POS all’estero. Grazie alla vostra app o all’area online BMCE Direct, seguite tutte le vostre operazioni bancarie in modo semplice e in tempo reale. \\
 Perché aprire un conto online?\\
 L’apertura di un conto online presenta 3 principali vantaggi: \\
-1.        Aprire un conto senza spostarsi, in Marocco o all’estero;\\
-2.        Avere un conto presso la filiale di vostra scelta;\\
-3.        Approfittare di omaggi, sconti e offerte speciali disponibili sul sito web agencedirecte.ma.\\
+Aprire un conto senza spostarsi, in Marocco o all’estero;\\
+Avere un conto presso la filiale di vostra scelta;\\
+Approfittare di omaggi, sconti e offerte speciali disponibili sul sito web agencedirecte.ma.\\
 Come sottoscrivere le nostre offerte?\\
-Aprire un conto in 3 passaggi: 
-SEMPLICE, VELOCE E GRATUITO\\</t>
-  </si>
-  <si>
-    <t>Werden Sie Kunde bei der Agence Directe der BANK OF AFRICA und profitieren Sie von den aktuellen exklusiven Angeboten!
-Spezialangebote
-Scheckkonto ohne Kontoführungsgebühren
-Gebühren für Zahlungen ins Ausland.
-+ Agence Directe oder Exclusivités Agence Directe
-1. Online-Eröffnung eines Bankkontos in wenigen Klicks; 
-2. Exklusive Angebote, die auf Ihre Bedürfnisse zugeschnitten sind;
-3. Kundenservice an 7 Tagen der Woche; 
-4. Selbstständige Verwaltung Ihres Kontos über „BMCE DIRECT“:
-24 Stunden an 7 Tagen der Woche.
-Eröffnen Sie Ihr Bankkonto in nur wenigen Minuten!
-Dies geht schnell und ist 100 % sicher: Alle Ihre persönlichen Informationen sind geschützt.
-Nutzen Sie das Pauschalangebot, das zu Ihnen passt:
-In Marokko ansässige Privatpersonen 
-Erhalten Sie in wenigen Klicks Zugang zu den wichtigsten Bankprodukten und -dienstleistungen mit:
-Azur-, Gold-, Platinum-Paket.
-Marokkaner mit Wohnsitz im Ausland  
-Eröffnen Sie Ihr Konto in Marokko, ganz gleich wo Sie sich befinden, bequem von zu Hause aus. Nutzen Sie eine Reihe von Bankdienstleistungen, um Ihr Konto täglich zu verwalten und vieles mehr:
-Blue Paket, First Paket.
-In Marokko ansässige Studierende 
-Nutzen Sie ein Online-Bankkonto und alle wichtigen Bankprodukte und -dienstleistungen kostenlos während Ihres gesamten Studiums mit:
-Jeune Campus Paket 
-Geschäftsleute 
-Eröffnen Sie ein Girokonto aus der Ferne, um Ihr persönliches Budget oder das Familienbudget zu verwalten: Essentiel-, Classic- und Gold-Paket.
-Profitieren Sie von einem speziellen Berater, der Sie in der Filiale oder online betreut.
-Hinter jeder Ihrer Anfragen steht ein echter Berater, der sich darum bemüht, Ihnen zu antworten:
-•        Telefonisch: Sie können unsere Berater 7 Tage die Woche von 8:00 bis 20:00 Uhr (marokkanische Zeit) kontaktieren:
-+212.5.20.39.30.30;
-•        Per E-Mail: agencedirecte@bankofafrica.ma;
-•        Per WhatsApp:
-+212.6.45.40.00.00;
-•        Per Online-Chat:
-24 Stunden täglich.
-Verwalten Sie Ihr Budget im Handumdrehen mit Ihrer BMCE Direct App.
-Rufen Sie Ihren Kontostand ab, tätigen Sie Sofortüberweisungen, bezahlen Sie Ihre Rechnungen, aktivieren Sie Ihr Guthaben und bezahlen Sie gebührenfrei Ihre internationalen E-Commerce-Transaktionen sowie Ihre TPE-Käufe im Ausland.
-Dank Ihrer BMCE Direct App oder Ihrem Online-Bereich können Sie alle Ihre Bankgeschäfte in Echtzeit und ganz einfach nachverfolgen.
-Warum sollten Sie Ihr Konto online eröffnen?
-Die Online-Kontoeröffnung bietet drei entscheidende Vorteile:
-1. Sie können Ihr Konto bequem von zu Hause aus eröffnen, sowohl von Marokko als auch vom Ausland aus
-2. Sie profitieren von einem Konto in einer Filiale Ihrer Wahl;
-3. Sie profitieren von Gratisangeboten, Rabatten und günstigen Angeboten, die auf der Website agencedirecte.ma verfügbar sind.
-Wie kann man unsere Angebote abonnieren?
-3 Schritte zur Eröffnung Ihres Kontos:
-EINFACH, SCHNELL UND KOSTENLOS</t>
+Aprire un conto in 3 passaggi:  SEMPLICE, VELOCE E GRATUITO\\</t>
+  </si>
+  <si>
+    <t>Werden Sie Kunde bei der Agence Directe der BANK OF AFRICA und profitieren Sie von den aktuellen exklusiven Angeboten!\\
+Spezialangebote\\
+Scheckkonto ohne Kontoführungsgebühren\\
+0 Gebühren für Zahlungen ins Ausland.\\
+Agence Directe oder Exclusivités Agence Directe\\
+Online-Eröffnung eines Bankkontos in wenigen Klicks; \\
+Exklusive Angebote, die auf Ihre Bedürfnisse zugeschnitten sind;\\
+Kundenservice an 7 Tagen der Woche; \\
+Selbstständige Verwaltung Ihres Kontos über „BMCE DIRECT“: 24 Stunden an 7 Tagen der Woche.\\
+Eröffnen Sie Ihr Bankkonto in nur wenigen Minuten!\\
+Dies geht schnell und ist 100 % sicher: Alle Ihre persönlichen Informationen sind geschützt.\\
+Nutzen Sie das Pauschalangebot, das zu Ihnen passt:\\
+In Marokko ansässige Privatpersonen \\
+Erhalten Sie in wenigen Klicks Zugang zu den wichtigsten Bankprodukten und -dienstleistungen mit: Azur-, Gold-, Platinum-Paket.\\
+Marokkaner mit Wohnsitz im Ausland  \\
+Eröffnen Sie Ihr Konto in Marokko, ganz gleich wo Sie sich befinden, bequem von zu Hause aus. Nutzen Sie eine Reihe von Bankdienstleistungen, um Ihr Konto täglich zu verwalten und vieles mehr: Blue Paket, First Paket.\\
+In Marokko ansässige Studierende \\
+Nutzen Sie ein Online-Bankkonto und alle wichtigen Bankprodukte und -dienstleistungen kostenlos während Ihres gesamten Studiums mit: Jeune Campus Paket \\
+Geschäftsleute \\
+Eröffnen Sie ein Girokonto aus der Ferne, um Ihr persönliches Budget oder das Familienbudget zu verwalten: Essentiel-, Classic- und Gold-Paket.\\
+Profitieren Sie von einem speziellen Berater, der Sie in der Filiale oder online betreut.\\
+Hinter jeder Ihrer Anfragen steht ein echter Berater, der sich darum bemüht, Ihnen zu antworten:\\
+Telefonisch: Sie können unsere Berater 7 Tage die Woche von 8:00 bis 20:00 Uhr (marokkanische Zeit) kontaktieren:+212.5.20.39.30.30;\\
+Per E-Mail: agencedirecte@bankofafrica.ma;\\
+Per WhatsApp: +212.6.45.40.00.00;\\
+Per Online-Chat: 24 Stunden täglich.\\
+Verwalten Sie Ihr Budget im Handumdrehen mit Ihrer BMCE Direct App.\\
+Rufen Sie Ihren Kontostand ab, tätigen Sie Sofortüberweisungen, bezahlen Sie Ihre Rechnungen, aktivieren Sie Ihr Guthaben und bezahlen Sie gebührenfrei Ihre internationalen E-Commerce-Transaktionen sowie Ihre TPE-Käufe im Ausland. Dank Ihrer BMCE Direct App oder Ihrem Online-Bereich können Sie alle Ihre Bankgeschäfte in Echtzeit und ganz einfach nachverfolgen.\\
+Warum sollten Sie Ihr Konto online eröffnen?\\
+Die Online-Kontoeröffnung bietet drei entscheidende Vorteile:\\
+Sie können Ihr Konto bequem von zu Hause aus eröffnen, sowohl von Marokko als auch vom Ausland aus\\
+Sie profitieren von einem Konto in einer Filiale Ihrer Wahl;\\
+Sie profitieren von Gratisangeboten, Rabatten und günstigen Angeboten, die auf der Website agencedirecte.ma verfügbar sind.\\
+Wie kann man unsere Angebote abonnieren?\\
+3 Schritte zur Eröffnung Ihres Kontos:EINFACH, SCHNELL UND KOSTENLOS\\</t>
   </si>
   <si>
     <t>Bas de page landing page, pages des offres et Page SEO 2 (figure)</t>
@@ -685,60 +621,39 @@
 long#94,short#1159,rich#17\\</t>
   </si>
   <si>
-    <t>1.
-  Initiez votre demande muni(e) de votre pièce d’identité\\
- 2.
-  Réalisez votre entretien en ligne avec votre conseiller\\
- 3.
-  Recevez votre numéro de compte et vos identifiants de banque à distance : BMCE Direct.\\</t>
-  </si>
-  <si>
-    <t>1.
-        Start the application process with a valid form of identification.\\
-2.
-        Complete your online interview with your advisor\\
-3.
-        Receive your account number and remote banking login: BMCE Direct.\\</t>
-  </si>
-  <si>
-    <t>1.
-        Inicie su solicitud con su documento de identidad
-2.
-        Realice su entrevista en línea con su asesor
-3.
-        Reciba su número de cuenta e identificadores de banca a distancia: BMCE Directo.</t>
-  </si>
-  <si>
-    <t>1.
- ابدأوا ملء طلبكم مع إحضار بطاقة هويتكم الشخصية.\\
-2. 
+    <t>Initiez votre demande muni(e) de votre pièce d’identité\\
+Réalisez votre entretien en ligne avec votre conseiller\\
+Recevez votre numéro de compte et vos identifiants de banque à distance : BMCE Direct.\\</t>
+  </si>
+  <si>
+    <t>Start the application process with a valid form of identification.\\
+Complete your online interview with your advisor\\
+Receive your account number and remote banking login: BMCE Direct.\\</t>
+  </si>
+  <si>
+    <t>Inicie su solicitud con su documento de identidad\\
+Realice su entrevista en línea con su asesor\\
+Reciba su número de cuenta e identificadores de banca a distancia: BMCE Directo.\\</t>
+  </si>
+  <si>
+    <t>ابدأوا ملء طلبكم مع إحضار بطاقة هويتكم الشخصية.\\
 أجروا مقابلتكم عبر الإنترنت مع مستشاركم.\\
-3. 
 استلموا رقم حسابكم ومعرف بنككم عن بُعد: BMCE Direct.\\</t>
   </si>
   <si>
-    <t>1.
-        Start je aanvraag met je identiteitsbewijs
-2.
-        Voer een online gesprek met je adviseur
-3.
-        Je rekeningnummer en je identificatiecode voor telebankieren ontvangen: BMCE Direct.</t>
-  </si>
-  <si>
-    <t>1.
-        Iniziate la richiesta con il vostro documento d'identità\\
-2.
-        Effettuate il colloquio online con il vostro consulente\\
-3.
-        Ricevete il vostro numero di conto e le vostre credenziali dell’home banking: BMCE Direct.\\</t>
-  </si>
-  <si>
-    <t>1.
-        Stellen Sie Ihren Antrag mit Ihrem Ausweisdokument
-2.
-        Führen Sie Ihr Online-Gespräch mit Ihrem Berater
-3.
-        Erhalten Sie Ihre Kontonummer und Ihre Zugangsdaten für das Telebanking: BMCE Direct.</t>
+    <t>Start je aanvraag met je identiteitsbewijs\\
+Voer een online gesprek met je adviseur\\
+Je rekeningnummer en je identificatiecode voor telebankieren ontvangen: BMCE Direct.\\</t>
+  </si>
+  <si>
+    <t>Iniziate la richiesta con il vostro documento d’identità\\
+Effettuate il colloquio online con il vostro consulente\\
+Ricevete il vostro numero di conto e le vostre credenziali dell’home banking: BMCE Direct.\\</t>
+  </si>
+  <si>
+    <t>Stellen Sie Ihren Antrag mit Ihrem Ausweisdokument\\
+Führen Sie Ihr Online-Gespräch mit Ihrem Berater\\
+Erhalten Sie Ihre Kontonummer und Ihre Zugangsdaten für das Telebanking: BMCE Direct.\\</t>
   </si>
   <si>
     <t>→ Ma demande : Mes pièces et mon Selfie Check → Ouverture 100% en ligne avec passage par l’application d’authentification Agence Directe :</t>
@@ -753,19 +668,19 @@
     <t>Attach your CNIE or Residency Card (scanned or in photo mode) and a selfie\\</t>
   </si>
   <si>
-    <t>Adjunte su CNIE o "Carte de Séjour" (Tarjeta de residencia) (escaneada o en modo foto) y un selfi</t>
+    <t>Adjunte su CNIE o "Carte de Séjour" (Tarjeta de residencia) (escaneada o en modo foto) y un selfi\\</t>
   </si>
   <si>
     <t>المرجو إرفاق بطاقة التعريف الوطنية أو بطاقة الإقامة (ممسوحة ضوئيًا أو مصورة) وسيلفي.\\</t>
   </si>
   <si>
-    <t>Voeg je Elektronische ID of verblijfsvergunning (gescand of met foto) en een selfie toe</t>
+    <t>Voeg je Elektronische ID of verblijfsvergunning (gescand of met foto) en een selfie toe\\</t>
   </si>
   <si>
     <t>Allegare la CNIE o la Carta di soggiorno (scansionata o in modalità foto) e un selfie\\</t>
   </si>
   <si>
-    <t>Fügen Sie Ihren Ausweis oder Ihre Aufenthaltskarte (eingescannt oder im Fotomodus) sowie ein Selfie bei</t>
+    <t>Fügen Sie Ihren Ausweis oder Ihre Aufenthaltskarte (eingescannt oder im Fotomodus) sowie ein Selfie bei\\</t>
   </si>
   <si>
     <t>Méta Data  page</t>
@@ -1071,7 +986,7 @@
     <t>Contact | Agence directe de BANK OF AFRICA</t>
   </si>
   <si>
-    <t>Contact | BANK OF AFRICA's Agence Directe</t>
+    <t>Contact | BANK OF AFRICA’s Agence Directe</t>
   </si>
   <si>
     <t>Contacto | Sucursal directa de BANK OF AFRICA</t>
@@ -1092,7 +1007,7 @@
     <t>Mentions légales | Agence directe de BANK OF AFRICA</t>
   </si>
   <si>
-    <t>Legal Notice | BANK OF AFRICA's Agence Directe</t>
+    <t>Legal Notice | BANK OF AFRICA’s Agence Directe</t>
   </si>
   <si>
     <t>Información legal | BANCO DE ÁFRICA agencia directa</t>
@@ -1113,7 +1028,7 @@
     <t>Comment ouvrir un compte en ligne | Agence directe de BANK OF AFRICA</t>
   </si>
   <si>
-    <t>How to open an online account | BANK OF AFRICA's Agence Directe</t>
+    <t>How to open an online account | BANK OF AFRICA’s Agence Directe</t>
   </si>
   <si>
     <t>Cómo abrir una cuenta en línea | BANK OF AFRICA Sucursal directa</t>
@@ -1134,7 +1049,7 @@
     <t>MRE, ouvrez votre compte en ligne au Maroc| Agence directe de BANK OF AFRICA</t>
   </si>
   <si>
-    <t>MREs, open your online account in Morocco | BANK OF AFRICA's Agence Directe</t>
+    <t>MREs, open your online account in Morocco | BANK OF AFRICA’s Agence Directe</t>
   </si>
   <si>
     <t>MRE, abra su cuenta en línea en Marruecos| Agence directe o Sucursal directa del BANK OF AFRICA</t>
@@ -1155,7 +1070,7 @@
     <t>Votre compte bancaire en ligne depuis chez vous | Agence Directe de BANK OF AFRICA</t>
   </si>
   <si>
-    <t>Your online bank account from home | BANK OF AFRICA's Agence Directe</t>
+    <t>Your online bank account from home | BANK OF AFRICA’s Agence Directe</t>
   </si>
   <si>
     <t>Su cuenta bancaria en línea desde casa | BANK OF AFRICA Sucursal directa</t>
@@ -1176,7 +1091,7 @@
     <t>Votre compte étudiant en ligne à 0 MAD| Agence Directe de BANK OF AFRICA</t>
   </si>
   <si>
-    <t>Your 0 MAD online student account | BANK OF AFRICA's Agence Directe</t>
+    <t>Your 0 MAD online student account | BANK OF AFRICA’s Agence Directe</t>
   </si>
   <si>
     <t>Su cuenta de estudiante en línea para 0 MAD| Sucursal directa del BANCO DE ÁFRICA</t>
@@ -1197,7 +1112,7 @@
     <t>Ouvrir un compte bancaire professionnel en ligne| Agence Directe de BANK OF AFRICA</t>
   </si>
   <si>
-    <t>Opening a business bank account online | BANK OF AFRICA's Agence Directe</t>
+    <t>Opening a business bank account online | BANK OF AFRICA’s Agence Directe</t>
   </si>
   <si>
     <t>Abrir una cuenta bancaria de negocios en línea| Agence Directe de BANK OF AFRICA</t>
@@ -1239,10 +1154,10 @@
     <t>Unsere Berater stehen Ihnen 6 Tage die Woche zur Verfügung: montags bis freitags von 8:00 bis 20:00 Uhr (marokkanische Zeit), samstags von 8:00 bis 13:00 Uhr oder per E-Mail und Chat.</t>
   </si>
   <si>
-    <t>Découvrez les mentions légales de l'Agence Directe de BANK OF AFRICA. Informations légales complètes pour l'ouverture de compte 100% en ligne.</t>
-  </si>
-  <si>
-    <t>View BANK OF AFRICA Agence Directe's Legal Notice. Get all the legal information you need to open an account 100% online.</t>
+    <t>Découvrez les mentions légales de l’Agence Directe de BANK OF AFRICA. Informations légales complètes pour l’ouverture de compte 100% en ligne.</t>
+  </si>
+  <si>
+    <t>View BANK OF AFRICA Agence Directe’s Legal Notice. Get all the legal information you need to open an account 100% online.</t>
   </si>
   <si>
     <t>Descubra los avisos legales de la Agencia Directa del BANCO DE ÁFRICA. Información legal completa para abrir una cuenta 100 % en línea.</t>
@@ -1254,13 +1169,13 @@
     <t>Lees de juridische informatie voor de BANK OF AFRICA Agence Directe. Volledige juridische informatie voor het openen van een rekening 100% online.</t>
   </si>
   <si>
-    <t>Scoprite le condizioni legali dell’Agence Directe di BANK OF AFRICA Informazioni legali complete per l'apertura di un conto 100% online.</t>
+    <t>Scoprite le condizioni legali dell’Agence Directe di BANK OF AFRICA Informazioni legali complete per l’apertura di un conto 100% online.</t>
   </si>
   <si>
     <t>Entdecken Sie die rechtlichen Hinweise der Agence Directe der BANK OF AFRICA. Umfassende rechtliche Informationen für die Kontoeröffnung 100% online.</t>
   </si>
   <si>
-    <t>Découvrez comment ouvrir un compte sans vous déplacer : complétez votre dossier, réalisez un entretien en visioconférence, signez électroniquement vos contrats, et recevez vos codes d'accès e-banking.</t>
+    <t>Découvrez comment ouvrir un compte sans vous déplacer : complétez votre dossier, réalisez un entretien en visioconférence, signez électroniquement vos contrats, et recevez vos codes d’accès e-banking.</t>
   </si>
   <si>
     <t>Learn how to open an account from the comfort of your home: complete your application, schedule a videoconference interview, sign your contracts electronically, and receive your e-banking access codes.</t>
@@ -1275,13 +1190,13 @@
     <t>Lees hoe je een rekening van huis kunt openen: vul je aanvraag in, voer een videoconferentiegesprek, onderteken je contracten elektronisch en ontvang je e-banking toegangscodes.</t>
   </si>
   <si>
-    <t>Scoprite come aprire un conto comodamente da casa: compilate la domanda, partecipate a un incontro in videoconferenza, firmate i contratti per via elettronica e ricevete i codici di accesso all'e-banking.</t>
+    <t>Scoprite come aprire un conto comodamente da casa: compilate la domanda, partecipate a un incontro in videoconferenza, firmate i contratti per via elettronica e ricevete i codici di accesso all’e-banking.</t>
   </si>
   <si>
     <t>Erfahren Sie, wie Sie ein Konto ganz bequem von zu Hause aus eröffnen können: Füllen Sie Ihre Unterlagen aus, führen Sie ein Gespräch per Videokonferenz, unterschreiben Sie Ihre Verträge elektronisch und erhalten Sie Ihre Zugangscodes zum E-Banking.</t>
   </si>
   <si>
-    <t>Explorez nos offres spécialement conçues pour les Marocains Résidant à l'Étrange (MRE) et profitez de la gratuité sur les 6 premiers mois. Solutions bancaires de BANK OF AFRICA adaptées pour faciliter vos opérations financières à distance.</t>
+    <t>Explorez nos offres spécialement conçues pour les Marocains Résidant à l’Étrange (MRE) et profitez de la gratuité sur les 6 premiers mois. Solutions bancaires de BANK OF AFRICA adaptées pour faciliter vos opérations financières à distance.</t>
   </si>
   <si>
     <t>Explore our offers specially designed for Moroccans Residing Abroad (MREs) and enjoy free banking for the first 6 months. BANK OF AFRICA provides banking solutions tailored to make it easier for you to do your financial transactions remotely.</t>
@@ -1302,10 +1217,10 @@
     <t>Erkunden Sie unsere Angebote speziell für Marokkaner mit Wohnsitz im Ausland (MRE) und profitieren Sie davon, dass die ersten 6 Monate kostenlos sind. Individuell auf Sie abgestimmte Banking-Lösungen der BANK OF AFRICA, um Ihre Finanzgeschäfte aus der Ferne zu erleichtern.</t>
   </si>
   <si>
-    <t>Découvrez nos offres bancaires pour particuliers. Ouverture de compte simplifiée avec l'Agence Directe de BANK OF AFRICA.</t>
-  </si>
-  <si>
-    <t>Learn more about our banking offers for individuals. BANK OF AFRICA's Agence Directe makes it easy to open an account.</t>
+    <t>Découvrez nos offres bancaires pour particuliers. Ouverture de compte simplifiée avec l’Agence Directe de BANK OF AFRICA.</t>
+  </si>
+  <si>
+    <t>Learn more about our banking offers for individuals. BANK OF AFRICA’s Agence Directe makes it easy to open an account.</t>
   </si>
   <si>
     <t>Descubra nuestras ofertas bancarias para particulares. Apertura de cuenta simplificada con la sucursal directa del BANCO DE ÁFRICA.</t>
@@ -1345,10 +1260,10 @@
 Eröffnen Sie Ihr Online-Studentenkonto für 0 MAD in weniger als 5 Minuten.</t>
   </si>
   <si>
-    <t>Profitez d'une ouverture de compte bancaire rapide, sécurisée, 100% en ligne et adaptée aux enjeux de votre entreprise avec Agence directe de BANK OF AFRICA</t>
-  </si>
-  <si>
-    <t>Get a fast, secure, 100% online bank account tailored to your company's needs with BANK OF AFRICA's Agence Directe.</t>
+    <t>Profitez d’une ouverture de compte bancaire rapide, sécurisée, 100% en ligne et adaptée aux enjeux de votre entreprise avec Agence directe de BANK OF AFRICA</t>
+  </si>
+  <si>
+    <t>Get a fast, secure, 100% online bank account tailored to your company’s needs with BANK OF AFRICA’s Agence Directe.</t>
   </si>
   <si>
     <t>Abra una cuenta bancaria de forma rápida, segura, 100 % en línea y adaptada a las necesidades de su empresa con Agence directe de BANK OF AFRICA</t>
@@ -1378,19 +1293,19 @@
     <t>Display more\\</t>
   </si>
   <si>
-    <t>ver más</t>
+    <t>ver más\\</t>
   </si>
   <si>
     <t>عرض المزيد\\</t>
   </si>
   <si>
-    <t>meer weergeven</t>
+    <t>meer weergeven\\</t>
   </si>
   <si>
     <t>mostra di più\\</t>
   </si>
   <si>
-    <t>Mehr anzeigen</t>
+    <t>Mehr anzeigen\\</t>
   </si>
   <si>
     <t>Page des offres : Professionnels</t>
@@ -1399,303 +1314,184 @@
     <t>owner : ABDE</t>
   </si>
   <si>
-    <t>Pack Essentiel :
-Tarif : 15DH TTC/mois
-Gratuit les 6 premiers mois
-Gratuité de 10 opérations courantes la première année
-‌
-Pack Classic :
-Tarif : 25DH TTC/mois
-Gratuit les 6 premiers mois
-Gratuité de 20 opérations courantes la première année
-‌
-Pack Gold :
-Tarif : 35DH TTC/mois
-Gratuit les 6 premiers mois
-Opérations courantes gratuites et illimitées la première année (virements, prélèvements, remise de chèque</t>
-  </si>
-  <si>
-    <t>Essential Pack:
-Price: 15 MAD incl. VAT/month
-Free for the first 6 months
-No fee for 10 standard transactions in the first year
-Classic Pack:
-Price: 25 MAD incl. VAT/month
-Free for the first 6 months
-No fee for 20 standard transactions in the first year
-Gold Pack:
-Price: 35 MAD incl. VAT/month
-Free for the first 6 months
-Unlimited free standard transactions for the first year (transfers, direct debits, check deposits, etc.).</t>
-  </si>
-  <si>
-    <t>Pack esencial:
-Precio: 15 DH impuestos incluidos/mes
-Gratis los 6 primeros meses
-10 transacciones regulares gratuitas durante el primer año
-‌
-Pack Clásico:
-Precio: 25 DH impuestos incluidos/mes
-Gratuito los 6 primeros meses
-20 transacciones regulares gratuitas durante el primer año
-‌
-Pack Oro:
-Precio: 35 DH impuestos incluidos/mes
-Gratis los 6 primeros meses
-Transacciones diarias ilimitadas y gratuitas durante el primer año (transferencias, domiciliaciones, envío de cheques, etc.)</t>
-  </si>
-  <si>
-    <t>باقة Pack Essentiel:
-الرسوم: 15 درهم شاملة الضريبة/شهر
-مجاني لأول 6 أشهر
-10 عمليات جارية مجانية في السنة الأولى
-باقة Pack Classic:
-الرسوم: 25 درهم شاملة الضريبة/شهر
-مجاني لأول 6 أشهر
- 20 عملية جارية مجانية في السنة الأولى
-باقة Pack Gold:
-الرسوم: 35 درهم شاملة الضريبة/شهر
-مجاني لأول 6 أشهر
-عمليات جارية مجانية وغير محدودة في السنة الأولى (تحويلات، مدفوعات، تحصيل الشيكات)</t>
-  </si>
-  <si>
-    <t>Pack Essentiel:
-Prijs: DH 15 incl/maand
-De eerste 6 maanden gratis
-Het eerste jaar 10 standaardtransacties gratis
-‌
-Pack Classic:
-Prijs: DH 25 incl/maand
-De eerste 6 maanden gratis
-Het eerste jaar 20 standaardtransacties gratis
-‌
-Pack Classic:
-Prijs: DH 35 incl/maand
-De eerste 6 maanden gratis
-Het eerste jaar gratis en onbeperkte standaardtransacties (overboekingen, afschrijvingen, cheques inwisselen)</t>
-  </si>
-  <si>
-    <t>Pack Essentiel:
-Costo: 15DH IVA inclusa/mese
-Gratuito i primi 6 mesi
-10 transazioni di routine gratuite nel primo anno
-‌
-Pack Classic:
-Costo: 25DH IVA inclusa/mese
-Gratuito i primi 6 mesi
-20 transazioni di routine gratuite nel primo anno
-‌
-Pack Gold:
-Costo: 35DH IVA inclusa/mese
-Gratuito i primi 6 mesi
-Operazioni di routine gratuite e illimitate nel primo anno (bonifici, prelievi, assegni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essentiel-Paket:
-Preis: 15 DH inkl. MwSt./Monat
-Die ersten 6 Monate kostenlos
-10 laufende Transaktionen im ersten Jahr kostenlos
-‌
-Classic-Paket:
-Preis: 25 DH inkl. MwSt./Monat
-Die ersten 6 Monate kostenlos																		
-20 laufende Transaktionen im ersten Jahr kostenlos 
-Gold-Paket:
-Preis: 35 DH inkl. MwSt./Monat																						
-Die ersten 6 Monate kostenlos																		
-Kostenlose und unbegrenzte alltägliche Transaktionen im ersten Jahr (Überweisungen, Lastschriften, Scheckeinreichung) </t>
+    <t>short#131\\
+short#482\\
+rich#250\\
+short#497\\
+rich#157\\
+short#523\\</t>
+  </si>
+  <si>
+    <t>15DH TTC/mois Gratuit les 6 premiers mois\\
+Gratuité de 10 opérations courantes la première année\\
+25DH TTC/mois Gratuit les 6 premiers mois\\
+Gratuité de 20 opérations courantes la première année\\
+35DH TTC/mois Gratuit les 6 premiers mois\\
+Opérations courantes gratuites et illimitées la première année (virements, prélèvements, remise de chèque\\</t>
+  </si>
+  <si>
+    <t>15 MAD incl. VAT/month Free for the first 6 months\\
+No fee for 10 standard transactions in the first year\\
+25 MAD incl. VAT/month Free for the first 6 months\\
+No fee for 20 standard transactions in the first year\\
+35 MAD incl. VAT/month Free for the first 6 months\\
+Unlimited free standard transactions for the first year (transfers, direct debits, check deposits, etc.).\\</t>
+  </si>
+  <si>
+    <t>15 DH impuestos incluidos/mes Gratis los 6 primeros meses\\
+10 transacciones regulares gratuitas durante el primer año\\
+‌25 DH impuestos incluidos/mes Gratuito los 6 primeros meses\\
+20 transacciones regulares gratuitas durante el primer año\\
+35 DH impuestos incluidos/mes Gratis los 6 primeros meses\\
+Transacciones diarias ilimitadas y gratuitas durante el primer año (transferencias, domiciliaciones, envío de cheques, etc.)\\</t>
+  </si>
+  <si>
+    <t>15 درهم شاملة الضريبة/شهر مجاني لأول 6 أشهر\\
+10 عمليات جارية مجانية في السنة الأولى\\
+25 درهم شاملة الضريبة/شهر مجاني لأول 6 أشهر\\
+20 عملية جارية مجانية في السنة الأولى\\
+35 درهم شاملة الضريبة/شهر مجاني لأول 6 أشهر\\
+عمليات جارية مجانية وغير محدودة في السنة الأولى (تحويلات، مدفوعات، تحصيل الشيكات)\\</t>
+  </si>
+  <si>
+    <t>DH 15 incl/maand De eerste 6 maanden gratis\\
+Het eerste jaar 10 standaardtransacties gratis\\
+‌DH 25 incl/maand De eerste 6 maanden gratis\\
+Het eerste jaar 20 standaardtransacties gratis\\
+‌DH 35 incl/maand De eerste 6 maanden gratis\\
+Het eerste jaar gratis en onbeperkte standaardtransacties (overboekingen, afschrijvingen, cheques inwisselen)\\</t>
+  </si>
+  <si>
+    <t>15DH IVA inclusa/mese Gratuito i primi 6 mesi\\
+10 transazioni di routine gratuite nel primo anno\\
+‌25DH IVA inclusa/mese Gratuito i primi 6 mesi\\
+20 transazioni di routine gratuite nel primo anno\\
+‌35DH IVA inclusa/mese Gratuito i primi 6 mesi\\
+Operazioni di routine gratuite e illimitate nel primo anno (bonifici, prelievi, assegni) \\</t>
+  </si>
+  <si>
+    <t>15 DH inkl. MwSt./Monat Die ersten 6 Monate kostenlos\\
+10 laufende Transaktionen im ersten Jahr kostenlos\\
+25 DH inkl. MwSt./Monat Die ersten 6 Monate kostenlos\\
+20 laufende Transaktionen im ersten Jahr kostenlos \\
+35 DH inkl. MwSt./Monat Die ersten 6 Monate kostenlos \\
+Kostenlose und unbegrenzte alltägliche Transaktionen im ersten Jahr (Überweisungen, Lastschriften, Scheckeinreichung) \\</t>
   </si>
   <si>
     <t>Page des offres : Particulier - Pack Azur</t>
   </si>
   <si>
-    <t>rich#28\\</t>
-  </si>
-  <si>
-    <t>Pack Azur
-0 Dh : Salariés &lt;40 ans
-09 Dhs TTC / mois : Autres Particuliers Gratuit les 6 premiers mois\\
-Descriptif :
-Le Pack Azur vous permet d’ouvrir un compte bancaire en ligne en vous offrant l’essentiel des produits et services pour faciliter votre quotidien, le tout 100% en ligne
-Détail de l’offre :
-En choisissant cette formule pour ouvrir un compte bancaire en ligne, plusieurs services vous sont offerts gratuitement.
--Compte chèque exonéré des frais de tenue de compte
--Service de banque à distance BMCE Direct
--Carte Visa Internationale sans contact "AZUR"
--Retrait à l'international/paiement gratuit chez les commerçants au Maroc et à l'étranger et sur les sites E-commerces nationaux et internationaux</t>
-  </si>
-  <si>
-    <t>Blue Pack
-0 MAD: Employees &lt;40 years old
-09 MAD (incl. VAT) / month: Other Individuals - free for the first 6 months\\
-Description:
-The Blue Pack lets you open an online bank account, with all the products and services you need to make your everyday life easier, 100% online.
-Offer details:
-When you choose this package to open an online bank account, you get several services free of charge.
--Checking account with no account maintenance fees
--BMCE Direct remote banking service
--"BLUE" contactless Visa International card
--Free international withdrawals/payments at retailers in Morocco and abroad, and on national and international e-commerce sites</t>
-  </si>
-  <si>
-    <t>Pack Azur
-0 Dh: Empleados &amp;lt;40 años
-09 Dhs impuestos incl. / mes: Otros particulares Gratuito durante los 6 primeros meses
-Descripción:
-El Pack Azur le permite abrir una cuenta bancaria en línea con todos los productos y servicios que necesita para facilitar su día a día, 100 % en línea
-Detalles de la oferta:
-Si elige esta opción para abrir una cuenta bancaria en línea, obtendrá una serie de servicios gratuitos.
--Cuenta de cheques exenta de gastos de mantenimiento de cuenta
--Servicio de banca a distancia BMCE Direct
--Tarjeta sin contacto AZUR" Visa Internacional
--Retiradas/pagos internacionales gratuitos en comercios de Marruecos y del extranjero y en sitios de comercio electrónico nacionales e internacionales</t>
-  </si>
-  <si>
-    <t>Pack Azur
-0 درهم: للموظفين دون سن الأربعين
-09 دراهم شاملة الضريبة / الشهر: للأفراد الآخرين مجانا لأول 6 أشهر\\
-الوصف:
-يتيح لكم Pack Azur فتح حساب بنكي عبر الإنترنت للاستفادة من خدمات ومنتجات أساسية لتسهيل حياتكم اليومية، كل ذلك عبر الإنترنت 100٪.
-تفاصيل العرض:
-باختياركم هذه الصيغة لفتح حساب بنكي عبر الإنترنت، تستفيدون من العديد من الخدمات مجانًا.
-- حساب شيك معفى من رسوم تدبير الحساب
-- خدمة البنك عن بعد BMCE Direct
-- بطاقة فيزا دولية بدون تماس "AZUR"
-- سحب دولي / دفع مجاني لدى التجار في المغرب وفي الخارج وعلى مواقع التجارة الإلكترونية المحلية والدولية</t>
-  </si>
-  <si>
-    <t>Pack Azur
-DH 0: Werknemers &lt;40 jaar
-DH 09 incl/ maand: De eerste zes maanden gratis voor andere particulieren
-Omschrijving:
-Met het Pack Azur kun je een ​​online bankrekening openen door je de essentiële producten en diensten aan te bieden om je dagelijks leven te vergemakkelijken, allemaal 100% online. 
-Details van de aanbieding:
-Wanneer je deze optie kiest om een online bankrekening te openen, krijg je een aantal diensten gratis.
--Chequerekening vrijgesteld van kosten voor rekeningbeheer
--BMCE Direct-service voor bankieren op afstand
--Internationale contactloze Visa-kaart “AZUR”
--Gratis internationale geldopnames/betalingen bij winkeliers in Marokko en in het buitenland en op nationale en internationale e-commercesites</t>
-  </si>
-  <si>
-    <t>Pack Azur
-0 Dh: Dipendenti &lt; 40 anni
-09 Dhs IVA inclusa/mese: Altri Privati Gratuito i primi 6 mesi\\
-Descrizione:
-Il Pack Azur vi permette di aprire un conto bancario online offrendovi i prodotti e i servizi essenziali per semplificare il vostro quotidiano, tutto 100% online
-Dettagli dell’offerta:
-Scegliendo questa formula per aprire un conto bancario online, vi verranno offerti gratuitamente diversi servizi.
-Conto corrente esente spese di tenuta conto
-- Servizio home banking BMCE Direct
-- Carta Visa International contactless “AZUR”
-- Prelievo all’estero / pagamento gratuito presso le attività commerciali in Marocco e all’estero e nei siti di e-commerce nazionali e internazionali</t>
-  </si>
-  <si>
-    <t>Azur-Paket
-0 DH: Arbeitnehmer &lt; 40 Jahre
-09 DH inkl. MwSt./Monat:
-Andere Privatpersonen In den ersten 6 Monaten kostenlos.
-Beschreibung:
-Mit dem Azur-Paket können Sie ein Online-Bankkonto eröffnen. Es bietet Ihnen die wichtigsten Produkte und Dienstleistungen, die Ihnen den Alltag erleichtern, und das alles zu 100% online.
-Einzelheiten des Angebots:
-Wenn Sie sich für diese Möglichkeit entscheiden, um ein Online-Bankkonto zu eröffnen, werden Ihnen verschiedene Dienstleistungen kostenlos angeboten.
-- Scheckkonto ohne Kontoführungsgebühren 
-- BMCE Direct Telebanking-Service
-- Internationale kontaktlose „AZUR“ Visakarte.
-- Kostenlose internationale Abhebung/Zahlung bei Händlern in Marokko und im Ausland sowie auf nationalen und internationalen E-Commerce-Websites</t>
+    <t xml:space="preserve">owner : ABDE
+descrptif already the same that why i removed it from all languages
+the offre details title is removed from what imane recomends [specify ticket] </t>
+  </si>
+  <si>
+    <t>rich#28\\
+short#411\\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 Dh : Salariés &lt;40 ans 09 Dhs TTC / mois : Autres Particuliers Gratuit les 6 premiers mois\\
+Compte chèque exonéré des frais de tenue de compte\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 MAD: Employees &lt;40 years old 09 MAD (incl. VAT) / month: Other Individuals - free for the first 6 months\\
+Checking account with no account maintenance fees\\
+</t>
+  </si>
+  <si>
+    <t>0 Dh: Empleados &amp;lt;40 años 09 Dhs impuestos incl. / mes: Otros particulares Gratuito durante los 6 primeros meses\\
+Cuenta de cheques exenta de gastos de mantenimiento de cuenta\\</t>
+  </si>
+  <si>
+    <t>0 درهم: للموظفين دون سن الأربعين 09 دراهم شاملة الضريبة / الشهر: للأفراد الآخرين مجانا لأول 6 أشهر\\
+حساب شيك معفى من رسوم تدبير الحساب\\</t>
+  </si>
+  <si>
+    <t>DH 0: Werknemers &lt;40 jaar DH 09 incl/ maand: De eerste zes maanden gratis voor andere particulieren\\
+Chequerekening vrijgesteld van kosten voor rekeningbeheer\\</t>
+  </si>
+  <si>
+    <t>0 Dh: Dipendenti &lt; 40 anni 09 Dhs IVA inclusa/mese: Altri Privati Gratuito i primi 6 mesi\\
+Conto corrente esente spese di tenuta conto\\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+0 DH: Arbeitnehmer &lt; 40 Jahre 09 DH inkl. MwSt./Monat: Andere Privatpersonen In den ersten 6 Monaten kostenlos.\\
+Scheckkonto ohne Kontoführungsgebühren\\ 
+</t>
   </si>
   <si>
     <t>Page des offres : Etudiants</t>
   </si>
   <si>
-    <t>Pack Jeune Campus
-Réservé aux 18-25 ans
-Gratuit
-Descriptif :
-Vous permet de bénéficier d’un compte bancaire en ligne et de l’essentiel des services bancaires gratuitement pendant tout votre cursus scolaire.
-Détail de l’offre :
-En choisissant cette formule pour ouvrir un compte bancaire en ligne, plusieurs services vous sont offerts gratuitement.
--Compte chèque exonéré des frais de tenue de compte
--Service de banque à distance BMCE Direct
--Carte Visa Internationale sans contact "Jeunes Campus"
--Retrait à l'international / paiement gratuit chez les commerçants au Maroc et à l'étranger et sur les sites E-commerces nationaux et internationaux</t>
-  </si>
-  <si>
-    <t>Youth Campus Pack
-Available to 18-25 year olds
-Free
-Description:
-This package gives you an online bank account and all essential banking services free of charge for the duration of your studies.
-Offer details:
-By choosing this option to open an online bank account, you'll receive several services free of charge.
--Checking account with no account maintenance fees
--BMCE Direct remote banking services
--"Jeunes Campus" contactless Visa International card
--Free international withdrawals/payments at retailers in Morocco and abroad, and on national and international e-commerce sites.</t>
-  </si>
-  <si>
-    <t>Pack Campus Joven
-Reservado para jóvenes de 18 a 25 años
-Gratis
-Descripción:
-Le permite disponer de una cuenta bancaria en línea y de todos los servicios bancarios esenciales de forma gratuita durante toda su carrera escolar.
-Detalles de la oferta:
-Si elige esta opción para abrir una cuenta bancaria en línea, obtendrá una serie de servicios gratuitos.
--Cuenta de cheques exenta de gastos de mantenimiento de cuenta
--Servicio de banca a distancia BMCE Direct
--Tarjeta Visa internacional sin contacto "Jeunes Campus"
--Retiradas internacionales / pagos gratuitos en comercios minoristas en Marruecos y en el extranjero y en sitios de comercio electrónico nacionales e internacionales</t>
-  </si>
-  <si>
-    <t>باقة Pack Jeune Campus
-مخصص للشباب من 18 إلى 25 عامًا
-مجاني
-الوصف:
-يتيح لكم الاستفادة من حساب بنكي عبر الإنترنت وجميع الخدمات البنكية الأساسية مجانًا طوال فترة دراستكم الجامعية.
-تفاصيل العرض:
-باختيار هذه الصيغة لفتح حساب بنكي عبر الإنترنت، ستستفيدون من العديد من الخدمات مجانًا.
-- حساب شيك معفى من رسوم تدبير الحساب
-- خدمة البنك عن بعد BMCE Direct
-- بطاقة فيزا دولية بدون تماس "Jeunes Campus"
-- سحب دولي / دفع مجاني لدى التجار في المغرب وفي الخارج وعلى مواقع التجارة الإلكترونية المحلية والدولية</t>
-  </si>
-  <si>
-    <t>Pack Jeune Campus
-Speciaal voor 18-25 jaar
-Gratis
-Omschrijving:
-Hiermee kun je tijdens je hele studietijd gratis profiteren van een online bankrekening en de meeste bankdiensten.
-Details van de aanbieding:
-Wanneer je deze optie kiest om een online bankrekening te openen, krijg je een aantal diensten gratis.
--Chequerekening vrijgesteld van kosten voor rekeningbeheer
--BMCE Direct-service voor bankieren op afstand
--Internationale contactloze Visa-kaart “Jeunes Campus”
--Gratis internationale geldopnames/betalingen bij winkeliers in Marokko en in het buitenland en op nationale en internationale e-commercesites</t>
-  </si>
-  <si>
-    <t>Pack Jeune Campus
-Riservato alla fascia d’età 18-25 anni
-Gratuito
-Descrizione:
-Vi permette di usufruire di un conto bancario online e dei più importanti servizi bancari in maniera totalmente gratuita per tutto il vostro percorso di studi.
-Dettagli dell’offerta:
-Scegliendo questa formula per aprire un conto bancario online, vi verranno offerti gratuitamente diversi servizi.
-Conto corrente esente da spese di tenuta conto
-- Servizio home banking BMCE Direct
-- Carta Visa Internazionale contactless “Jeunes Campus”
-- Prelievo all’estero / pagamento gratuito presso le attività commerciali in Marocco e all’estero e nei siti di e-commerce nazionali e internazionali</t>
-  </si>
-  <si>
-    <t>Jeune Campus Paket
-Reserviert für die 18-25 Jährigen
-Kostenlos
-Beschreibung:
-Ermöglicht Ihnen die kostenlose Nutzung eines Online-Bankkontos sowie alle wichtigen Bankprodukte und -dienstleistungen während Ihres gesamten Studiums.
-Einzelheiten des Angebots:
-Wenn Sie sich für diese Option entscheiden, um ein Online-Bankkonto zu eröffnen, werden Ihnen verschiedene Dienstleistungen kostenlos angeboten.
-- Scheckkonto ohne Kontoführungsgebühren 
-- BMCE Direct Telebanking-Service
-- Internationale kontaktlose „Jeunes Campus“ Visakarte.
-- Kostenlose internationale Abhebung/Zahlung bei Händlern in Marokko und im Ausland sowie auf nationalen und internationalen E-Commerce-Websites</t>
+    <t xml:space="preserve">owner : ABDE
+to modify service description for each one (to be inspired from Azure)
+and to delete the removed services with there descriptions short#394, short#395,short#698, short#699, short#700 </t>
+  </si>
+  <si>
+    <t>rich#51\\
+rich#52\\
+short#390\\
+short#391\\
+short#392\\
+short#393\\</t>
+  </si>
+  <si>
+    <t>Réservé aux 18-25 ans Gratuit\\
+Vous permet de bénéficier d’un compte bancaire en ligne et de l’essentiel des services bancaires gratuitement pendant tout votre cursus scolaire.\\
+Compte chèque exonéré des frais de tenue de compte\\
+Service de banque à distance BMCE Direct\\
+Carte Visa Internationale sans contact "Jeunes Campus"\\
+Retrait à l’international / paiement gratuit chez les commerçants au Maroc et à l’étranger et sur les sites E-commerces nationaux et internationaux\\</t>
+  </si>
+  <si>
+    <t>Available to 18-25 year olds Free\\
+This package gives you an online bank account and all essential banking services free of charge for the duration of your studies.\\
+Checking account with no account maintenance fees\\
+BMCE Direct remote banking services\\
+"Jeunes Campus" contactless Visa International card\\
+Free international withdrawals/payments at retailers in Morocco and abroad, and on national and international e-commerce sites.\\</t>
+  </si>
+  <si>
+    <t>Reservado para jóvenes de 18 a 25 años Gratis\\
+Le permite disponer de una cuenta bancaria en línea y de todos los servicios bancarios esenciales de forma gratuita durante toda su carrera escolar.\\
+Cuenta de cheques exenta de gastos de mantenimiento de cuenta\\
+Servicio de banca a distancia BMCE Direct\\
+Tarjeta Visa internacional sin contacto "Jeunes Campus"\\
+Retiradas internacionales / pagos gratuitos en comercios minoristas en Marruecos y en el extranjero y en sitios de comercio electrónico nacionales e internacionales\\</t>
+  </si>
+  <si>
+    <t>مخصص للشباب من 18 إلى 25 عامًا مجاني\\
+يتيح لكم الاستفادة من حساب بنكي عبر الإنترنت وجميع الخدمات البنكية الأساسية مجانًا طوال فترة دراستكم الجامعية.\\
+- حساب شيك معفى من رسوم تدبير الحساب\\
+- خدمة البنك عن بعد BMCE Direct\\
+- بطاقة فيزا دولية بدون تماس "Jeunes Campus"\\
+- سحب دولي / دفع مجاني لدى التجار في المغرب وفي الخارج وعلى مواقع التجارة الإلكترونية المحلية والدولية\\</t>
+  </si>
+  <si>
+    <t>Speciaal voor 18-25 jaar Gratis\\
+Hiermee kun je tijdens je hele studietijd gratis profiteren van een online bankrekening en de meeste bankdiensten.\\
+Chequerekening vrijgesteld van kosten voor rekeningbeheer\\
+BMCE Direct-service voor bankieren op afstand\\
+Internationale contactloze Visa-kaart “Jeunes Campus”\\
+Gratis internationale geldopnames/betalingen bij winkeliers in Marokko en in het buitenland en op nationale en internationale e-commercesites\\</t>
+  </si>
+  <si>
+    <t>Riservato alla fascia d’età 18-25 anni Gratuito\\
+Vi permette di usufruire di un conto bancario online e dei più importanti servizi bancari in maniera totalmente gratuita per tutto il vostro percorso di studi.\\
+Conto corrente esente da spese di tenuta conto\\
+Servizio home banking BMCE Direct\\
+Carta Visa Internazionale contactless “Jeunes Campus”\\
+Prelievo all’estero / pagamento gratuito presso le attività commerciali in Marocco e all’estero e nei siti di e-commerce nazionali e internazionali\\</t>
+  </si>
+  <si>
+    <t>Reserviert für die 18-25 Jährigen Kostenlos\\
+Ermöglicht Ihnen die kostenlose Nutzung eines Online-Bankkontos sowie alle wichtigen Bankprodukte und -dienstleistungen während Ihres gesamten Studiums.\\
+Scheckkonto ohne Kontoführungsgebühren \\
+BMCE Direct Telebanking-Service\\
+Internationale kontaktlose „Jeunes Campus“ Visakarte.\\
+Kostenlose internationale Abhebung/Zahlung bei Händlern in Marokko und im Ausland sowie auf nationalen und internationalen E-Commerce-Websites\\</t>
   </si>
   <si>
     <t>Page des offres : Particulier - Pack platinium</t>
@@ -1705,235 +1501,117 @@
   </si>
   <si>
     <t xml:space="preserve">rich#44\\
-not found\\
-not found\\
+rich#45\\
+short#355\\
+short#433\\
+short#434\\
 </t>
   </si>
   <si>
-    <t>29 Dhs TTC / mois
-Gratuit les 6 premiers mois
-Assorti d’avantages Premium, le Pack Platinum optimise la gestion de votre compte en couvrant l’essentiel des opérations courantes. Il offre le prestige d’une carte Mastercard Platinum Internationale avec des plafonds élargis, un univers d’avantages attractifs et l’accès gratuit à une gamme de services d’assurance
-En choisissant cette formule pour ouvrir un compte bancaire en ligne, plusieurs services vous sont offerts gratuitement.
--Compte chèque exonéré des frais de tenue de compte
--Service de banque à distance BMCE Direct
--Carte Mastercard Internationale sans contact "PLATINUM", avec des plafonds très importants de retraits / paiements
--Retrait à l'international / paiement gratuit chez les commerçants au Maroc et à l'étranger et sur les sites E-commerces nationaux et internationaux
--Opérations courantes gratuites (Virements, prélèvements, remises de chèque)
--Accès au programme d'avantages MasterCard Platinum (accès gratuit et illimité à 25 lounges d'aéroports au Maroc et à l'internationale, adhésion au programme Airports lounge Key... )
--Assurance Protection des achats effectués par carte
--Assurance Vol et Agression suite au retrait guichet</t>
-  </si>
-  <si>
-    <t>Platinum Pack
-29 MAD incl. VAT / month
-Free for the first 6 months
-Description:
-With its Premium benefits, the Platinum Pack optimizes your account management by covering the essentials of everyday transactions. It offers the prestige of a Mastercard Platinum International card with higher limits, a world of attractive benefits, and free access to a range of insurance services.
-Offer details:
-By choosing this option for your online banking account, you'll receive a number of services free of charge.
--Checking account with no account maintenance fees
--BMCE Direct remote banking service
--"PLATINUM" international contactless Mastercard, with high withdrawal/payment limits
--Free international withdrawals/payments at retailers in Morocco and abroad, and on national and international e-commerce sites
-Free day-to-day transactions (transfers, direct debits, check deposits)
--Access to the MasterCard Platinum benefits program (free, unlimited access to 25 airport lounges in Morocco and abroad, membership to the airport lounge Key program, etc.)
--Card Purchase Protection Insurance
--Theft and assault insurance for ATM withdrawals</t>
-  </si>
-  <si>
-    <t>Pack Platino
-29 Dhs impuestos incl. / mes
-Gratuito los 6 primeros meses
-Descripción:
-Con sus ventajas Premium, el Pack Platino optimiza la gestión de su cuenta cubriendo la mayoría de las operaciones cotidianas. Ofrece el prestigio de una tarjeta MasterCard Platinum International con límites ampliados, una serie de atractivas ventajas y acceso gratuito a una gama de servicios de seguros
-Detalles de la oferta:
-Si elige esta opción para abrir una cuenta bancaria en línea, obtendrá una serie de servicios gratuitos.
--Cuenta de cheques exenta de gastos de mantenimiento de cuenta
--Servicio de banca a distancia BMCE Direct
--Tarjeta MasterCard internacional sin contacto "PLATINUM", con límites de retirada/pago muy elevados
--Retiradas/pagos internacionales gratuitos en comercios minoristas de Marruecos y del extranjero y en sitios de comercio electrónico nacionales e internacionales
--Transacciones cotidianas gratuitas (transferencias, domiciliaciones, ingresos de cheques)
--Acceso al programa de ventajas MasterCard Platinum (acceso gratuito e ilimitado a 25 salas VIP de aeropuertos en Marruecos y en el extranjero, adhesión al programa Airports lounge Key, etc.). )
--Seguro de protección de compras con tarjeta
--Seguro contra robo y asalto tras la retirada en cajeros automáticos</t>
-  </si>
-  <si>
-    <t>باقة Pack Platinum
-29 درهم شاملة الضريبة / شهر
-مجاني لأول 6 أشهر
-الوصف:
-مع العديد من المزايا بريميوم، يعمل Pack Platinum على تحسين تدبير حسابكم عبر مختلف العمليات الجارية. توفر هذه الباقة ميزة بطاقة ماستركارد بلاتينوم Mastercard Platinum الدولية مع سقف مرتفع، ومجموعة من المزايا الجذابة، والولوج المجاني إلى مجموعة من خدمات التأمين.
-تفاصيل العرض:
-باختيار هذه الصيغة لفتح حساب بنكي عبر الإنترنت، ستستفيدون من العديد من الخدمات مجانًا.
-- حساب شيك معفى من رسوم تدبير الحساب
-- خدمة البنك عن بعد BMCE Direct
-- بطاقة ماستركارد الدولية بدون تماس "PLATINUM"، مع سقف مرتفع للسحب النقدي / الدفع
-- سحب دولي / دفع مجاني لدى التجار في المغرب وفي الخارج وعلى مواقع التجارة الإلكترونية المحلية والدولية
-- عمليات جارية مجانية (تحويلات، مدفوعات، تحصيل الشيكات)
-- الولوج إلى برنامج مزايا ماستركارد بلاتينوم MasterCard Platinum (ولوج مجاني وغير محدود إلى 25 صالة في المطارات في المغرب ودوليًا، الانضمام إلى برنامج Airports lounge Key... )
-- تأمين حماية الشراء بواسطة البطاقة
-- تأمين ضد السرقة والاعتداء بعد سحب النقود من الشباك الآلي</t>
-  </si>
-  <si>
-    <t>Pack Platinum
-DH 29 incl / maand
-De eerste zes maanden gratis
-Omschrijving:
-Met de Premium voordelen optimaliseert het Pack Platinum het beheer van je rekening voor alle essentiële dagelijkse transacties. Deze kaart biedt het prestige van een International Platinum Mastercard met uitgebreide limieten, een reeks aantrekkelijke voordelen en gratis toegang tot een scala aan verzekeringsdiensten.
-Details van de aanbieding:
-Wanneer je deze optie kiest om een online bankrekening te openen, krijg je een aantal diensten gratis.
--Chequerekening vrijgesteld van kosten voor rekeningbeheer
--BMCE Direct-service voor bankieren op afstand
--Internationale contactloze Mastercard "PLATINUM”, met zeer hoge opname-/betalingslimieten
--Gratis internationale geldopnames/betalingen bij winkeliers in Marokko en in het buitenland en op nationale en internationale e-commercesites
--Gratis dagelijkse transacties (overschrijvingen, afschrijvingen, inwisselen van cheques)
--Toegang tot het MasterCard Platinum voordeelprogramma (gratis en onbeperkte toegang tot 25 luchthavenlounges in Marokko en in het buitenland, lidmaatschap van het Airports lounge Key-programma, enz... )
--Verzekering bescherming voor aankopen per kaart
--Verzekering tegen diefstal en geweldpleging na geldopname uit een geldautomaat</t>
-  </si>
-  <si>
-    <t>Pack Platinum
-29 Dhs IVA compresa / mese
-Gratuito i primi 6 mesi
-Descrizione:
-Con i suoi vantaggi Premium, il Platinum Pack ottimizza la gestione del conto coprendo la maggior parte delle operazioni quotidiane. Offre il prestigio di una International Platinum Mastercard con limiti estesi, una serie di vantaggi interessanti e l'accesso gratuito a una serie di servizi assicurativi
-Dettagli dell'offerta :
-Scegliendo questa formula per aprire un conto bancario online, vi verranno offerti gratuitamente diversi servizi.
--Conto corrente esente da spese di tenuta conto
--Servizio di home banking BMCE Direct
--International Mastercard contactless “PLATINUM”, con limiti di prelievo/pagamento molto elevati
--Prelievi/pagamenti internazionali gratuiti presso attività commerciali in Marocco e all'estero e su siti di e-commerce nazionali e internazionali.
-Operazioni quotidiane gratuite (bonifici, addebiti diretti, assegni)
--Accesso al programma di vantaggi MasterCard Platinum (accesso gratuito e illimitato a 25 lounge aeroportuali in Marocco e all'estero, adesione al programma Airports lounge Key, ecc.) 
--Assicurazione per gli acquisti effettuati tramite carta
--Assicurazione contro il furto e l'aggressione a seguito di prelievo da ATM</t>
-  </si>
-  <si>
-    <t>Platinum-Paket
-29 DH inkl. MwSt./Monat
-Die ersten 6 Monate kostenlos
-Beschreibung:
-Mit seinen Premium-Vorteilen optimiert das Platinum-Paket Ihre Kontoverwaltung, indem es das Wesentliche für den täglichen Operationen abdeckt.
-Es bietet das Prestige einer internationalen Platinum-Mastercard mit erweiterten Limits, einer Welt voller attraktiver Vorteile und kostenlosen Zugang zu einer Reihe von Versicherungsleistungen.
-Einzelheiten des Angebots:
-Wenn Sie sich für diese Option entscheiden, um ein Online-Bankkonto zu eröffnen, werden Ihnen verschiedene Dienstleistungen kostenlos angeboten.
-- Scheckkonto ohne Kontoführungsgebühren    				
-- BMCE Direct Telebanking-Service
-- Internationale kontaktlose „PLATINUM“-Mastercard mit hohen Abhebungs-/Zahlungslimits
-- Kostenlose internationale Abhebungen/Zahlungen bei Einzelhändlern in Marokko und im Ausland sowie auf nationalen und internationalen E-Commerce-Seiten
-- Kostenlose alltägliche Transaktionen (Überweisungen, Lastschriften, Schecküberweisungen)
-- Zugang zum MasterCard Platinum Vorteilsprogramm  (kostenloser und unbegrenzter Zugang zu 25 Flughafen-Lounges in Marokko und im Ausland, Mitgliedschaft im Airports Lounge Key Programm usw.).
-- Versicherung zum Schutz vor mit der Karte getätigten Käufen
-- Versicherung gegen Diebstahl und Überfall nach dem Abheben am Schalter</t>
+    <t xml:space="preserve">29 Dhs TTC / mois Gratuit les 6 premiers mois\\
+Assorti d’avantages Premium, le Pack Platinum optimise la gestion de votre compte en couvrant l’essentiel des opérations courantes. Il offre le prestige d’une carte Mastercard Platinum Internationale avec des plafonds élargis, un univers d’avantages attractifs et l’accès gratuit à une gamme de services d’assurance\\
+Compte chèque exonéré des frais de tenue de compte\\
+Carte Mastercard Internationale sans contact "PLATINUM", avec des plafonds très importants de retraits / paiements\\
+Retrait à l’international / paiement gratuit chez les commerçants au Maroc et à l’étranger et sur les sites E-commerces nationaux et internationaux\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 MAD incl. VAT / month Free for the first 6 months\\
+With its Premium benefits, the Platinum Pack optimizes your account management by covering the essentials of everyday transactions. It offers the prestige of a Mastercard Platinum International card with higher limits, a world of attractive benefits, and free access to a range of insurance services.\\
+Checking account with no account maintenance fees\\
+"PLATINUM" international contactless Mastercard, with high withdrawal/payment limits\\
+Free international withdrawals/payments at retailers in Morocco and abroad, and on national and international e-commerce sites\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 Dhs impuestos incl. / mes Gratuito los 6 primeros meses\\
+Con sus ventajas Premium, el Pack Platino optimiza la gestión de su cuenta cubriendo la mayoría de las operaciones cotidianas. Ofrece el prestigio de una tarjeta MasterCard Platinum International con límites ampliados, una serie de atractivas ventajas y acceso gratuito a una gama de servicios de seguros\\
+Cuenta de cheques exenta de gastos de mantenimiento de cuenta\\
+Tarjeta MasterCard internacional sin contacto "PLATINUM", con límites de retirada/pago muy elevados\\
+Retiradas/pagos internacionales gratuitos en comercios minoristas de Marruecos y del extranjero y en sitios de comercio electrónico nacionales e internacionales\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 درهم شاملة الضريبة / شهر مجاني لأول 6 أشهر\\
+مع العديد من المزايا بريميوم، يعمل Pack Platinum على تحسين تدبير حسابكم عبر مختلف العمليات الجارية. توفر هذه الباقة ميزة بطاقة ماستركارد بلاتينوم Mastercard Platinum الدولية مع سقف مرتفع، ومجموعة من المزايا الجذابة، والولوج المجاني إلى مجموعة من خدمات التأمين.\\
+حساب شيك معفى من رسوم تدبير الحساب\\
+بطاقة ماستركارد الدولية بدون تماس "PLATINUM"، مع سقف مرتفع للسحب النقدي / الدفع\\
+سحب دولي / دفع مجاني لدى التجار في المغرب وفي الخارج وعلى مواقع التجارة الإلكترونية المحلية والدولية\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DH 29 incl / maand De eerste zes maanden gratis\\
+Met de Premium voordelen optimaliseert het Pack Platinum het beheer van je rekening voor alle essentiële dagelijkse transacties. Deze kaart biedt het prestige van een International Platinum Mastercard met uitgebreide limieten, een reeks aantrekkelijke voordelen en gratis toegang tot een scala aan verzekeringsdiensten.\\
+Chequerekening vrijgesteld van kosten voor rekeningbeheer\\
+Internationale contactloze Mastercard "PLATINUM”, met zeer hoge opname-/betalingslimieten\\
+Gratis internationale geldopnames/betalingen bij winkeliers in Marokko en in het buitenland en op nationale en internationale e-commercesites\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 Dhs IVA compresa / mese Gratuito i primi 6 mesi\\
+Con i suoi vantaggi Premium, il Platinum Pack ottimizza la gestione del conto coprendo la maggior parte delle operazioni quotidiane. Offre il prestigio di una International Platinum Mastercard con limiti estesi, una serie di vantaggi interessanti e l’accesso gratuito a una serie di servizi assicurativi\\
+Conto corrente esente da spese di tenuta conto\\
+International Mastercard contactless “PLATINUM”, con limiti di prelievo/pagamento molto elevati\\
+Prelievi/pagamenti internazionali gratuiti presso attività commerciali in Marocco e all’estero e su siti di e-commerce nazionali e internazionali.\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 DH inkl. MwSt./Monat Die ersten 6 Monate kostenlos\\
+Mit seinen Premium-Vorteilen optimiert das Platinum-Paket Ihre Kontoverwaltung, indem es das Wesentliche für den täglichen Operationen abdeckt. Es bietet das Prestige einer internationalen Platinum-Mastercard mit erweiterten Limits, einer Welt voller attraktiver Vorteile und kostenlosen Zugang zu einer Reihe von Versicherungsleistungen.\\
+Scheckkonto ohne Kontoführungsgebühren \\                                   
+Internationale kontaktlose „PLATINUM“-Mastercard mit hohen Abhebungs-/Zahlungslimits\\
+Kostenlose internationale Abhebungen/Zahlungen bei Einzelhändlern in Marokko und im Ausland sowie auf nationalen und internationalen E-Commerce-Seiten\\
+</t>
   </si>
   <si>
     <t>Page des offres : Particulier - Pack Gold</t>
   </si>
   <si>
-    <t>Pack Gold
-19 Dhs TTC / mois Gratuit les 6 premiers mois
-Descriptif :
-Couvre l’essentiel de vos opérations bancaires courantes et vous offre une carte Visa Gold Internationale qui vous donne accès à un programme d’avantages commerçants et à des services d'assistance
-Détail de l’offre :
-En choisissant cette formule pour ouvrir un compte bancaire en ligne, plusieurs services vous sont offerts gratuitement.
--Compte chèque exonéré des frais de tenue de compte
--Service de banque à distance BMCE Direct
--Carte Visa Internationale sans contact "GOLD", avec des plafonds importants de retraits / paiements
--Retrait à l'international / paiement gratuit chez les commerçants au Maroc et à l'étranger et sur les sites E-commerces nationaux et internationaux
--Opérations courantes gratuites (Virements, prélèvements, remises de chèque)
--Accès au programme d'avantages Visa Gold : réductions sur une sélection d'enseignes
--Assistance médicale et juridique à l'étranger valable en cas d'achat du titre de voyage avec la carte</t>
-  </si>
-  <si>
-    <t>Gold Pack
-19 MAD incl. VAT / month Free for the first 6 months
-Description:
-Covers the essentials of your daily banking transactions and offers you an International Visa Gold card that gives you access to a range of merchant advantages and assistance services.
-Offer details:
-By choosing this option for your online banking account, you'll receive a number of services free of charge.
--Checking account with no account maintenance fees
--BMCE Direct remote banking service
--"GOLD" Visa International contactless card, with high withdrawal/payment limits
--Free international withdrawals/payments at retailers in Morocco and abroad, and on national and international e-commerce sites.
-Free day-to-day transactions (transfers, direct debits, check deposits)
--Access to the Visa Gold benefits program: discounts on selected brands
--Medical and legal assistance abroad available when travel documents are purchased with the card.</t>
-  </si>
-  <si>
-    <t>Pack Oro
-19 Dhs impuestos incl. / Mes gratuito los 6 primeros meses
-Descripción:
-Cubre la mayoría de sus transacciones bancarias cotidianas y le proporciona una tarjeta Visa Oro Internacional con acceso a un programa de ventajas para comercios y servicios de asistencia
-Detalles de la oferta:
-Si elige esta opción para abrir una cuenta bancaria en línea, obtendrá una serie de servicios gratuitos.
--Cuenta de cheques exenta de gastos de mantenimiento de cuenta
--Servicio de banca a distancia BMCE Direct
--Tarjeta Visa Internacional sin contacto "ORO", con elevados límites de retirada/pago
--Retiradas/pagos internacionales gratuitos en comercios minoristas de Marruecos y del extranjero, y en sitios de comercio electrónico nacionales e internacionales
--Transacciones cotidianas gratuitas (transferencias, domiciliaciones, ingresos de cheques)
--Acceso al programa de ventajas Visa Oro: descuentos en marcas seleccionadas
--Asistencia médica y jurídica en el extranjero válida cuando se adquieren documentos de viaje con la tarjeta</t>
-  </si>
-  <si>
-    <t>باقة Pack Gold
-19 درهم شاملة الضريبة / شهر 
-مجاني لأول 6 أشهر
-الوصف:
-يغطي جميع العمليات البنكية الجارية ويوفر لكم بطاقة فيزا Gold غولد الدولية التي تمنحكم ولوجا إلى برنامج مزايا التجار وخدمات المساعدة.
-تفاصيل العرض:
-باختيار هذه الصيغة لفتح حساب بنكي عبر الإنترنت، ستستفيدون من العديد من الخدمات مجانًا.- حساب شيك معفى من رسوم تدبير الحساب
-- خدمة البنك عن بعد BMCE Direct
-- بطاقة فيزا الدولية بدون تماس "GOLD"، مع سقف مرتفع للسحب النقدي / الدفع
-- سحب دولي / دفع مجاني لدى التجار في المغرب وفي الخارج وعلى مواقع التجارة الإلكترونية المحلية والدولية
-- عمليات جارية مجانية (تحويلات، مدفوعات، تحصيل الشيكات)
-- الولوج إلى برنامج مزايا فيزا غولد Gold: خصومات على مجموعة مختارة من المتاجر
-- مساعدة طبية وقانونية في الخارج صالحة في حال شراء تذكرة سفر باستخدام البطاقة</t>
-  </si>
-  <si>
-    <t>Pack Gold
-DH 19 incl / maand De eerste zes maanden gratis
-Omschrijving:
-Dekt je meeste dagelijkse banktransacties en biedt een Visa Gold International-kaart met toegang tot een voordeelprogramma voor winkeliers en ondersteunende diensten.
-Details van de aanbieding:
-Wanneer je deze optie kiest om een online bankrekening te openen, krijg je een aantal diensten gratis.
--Chequerekening vrijgesteld van kosten voor rekeningbeheer
--BMCE Direct-service voor bankieren op afstand
--International contactloze Visa-kaart "GOLD”, met hoge opname-/betalingslimieten
--Gratis internationale geldopnames/betalingen bij winkeliers in Marokko en in het buitenland en op nationale en internationale e-commercesites
-Gratis dagelijkse transacties (overschrijvingen, afschrijvingen, inwisselen van cheques)
-Toegang tot het Visa Gold-voordeelprogramma: kortingen op geselecteerde merken
--Medische en juridische bijstand in het buitenland, geldig bij aankoop van reisdocumenten met de kaart</t>
-  </si>
-  <si>
-    <t>Pack Gold
-19 Dhs IVA compresa / mese Gratuito i primi 6 mesi
-Descrizione:
-Copre la maggior parte delle transazioni bancarie quotidiane oltre a concedervi una carta Visa Gold International con accesso a un programma di vantaggi per gli esercenti e a servizi di assistenza.
-Dettagli dell'offerta :
-Scegliendo questa formula per aprire un conto bancario online, vi verranno offerti gratuitamente diversi servizi.
--Conto corrente esente da spese di tenuta conto
--Servizio di home banking BMCE Direct
--Visa International contactless “GOLD”, con limiti di prelievo/pagamento elevati
--Prelievi/pagamenti internazionali gratuiti presso attività commerciali in Marocco e all'estero e su siti di e-commerce nazionali e internazionali.
-Operazioni quotidiane gratuite (bonifici, addebiti diretti, assegni)
--Accesso al programma di vantaggi Visa Gold: sconti su marchi selezionati.
--Assistenza medica e legale all'estero, valida in caso di acquisto dei documenti di viaggio con carta</t>
-  </si>
-  <si>
-    <t>Gold-Paket
-19 DH inkl. MwSt./Monat
-Die ersten 6 Monate kostenlos
-Beschreibung:
-Deckt den Großteil Ihrer täglichen Bankgeschäfte ab und bietet Ihnen eine internationale Visa Gold-Karte, mit der Sie Zugang zu einem Programm mit Händlervorteilen und Support-Leistungen haben.
-Einzelheiten des Angebots:
-Wenn Sie sich für diese Option entscheiden, um ein Online-Bankkonto zu eröffnen, werden Ihnen verschiedene Dienstleistungen kostenlos angeboten.
-- Scheckkonto ohne Kontoführungsgebühren				
-- BMCE Direct Telebanking-Service
-- Internationale kontaktlose „GOLD“-Visakarte mit hohen Abhebungs-/Zahlungslimits
-- Kostenlose internationale Abhebungen/Zahlungen bei Einzelhändlern in Marokko und im Ausland sowie auf nationalen und internationalen E-Commerce-Seiten
-- Kostenlose alltägliche Transaktionen (Überweisungen, Lastschriften, Schecküberweisungen)
-- Zugang zum Visa Gold-Vorteilsprogramm: Rabatte bei ausgewählten Filialen.
-- Medizinische Versorgung und Rechtsbeistand im Ausland, gültig bei Kauf des Reisetickets mit der Karte</t>
+    <t>rich#37\\
+rich#38\\
+short#346\\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 Dhs TTC / mois Gratuit les 6 premiers mois\\
+Couvre l’essentiel de vos opérations bancaires courantes et vous offre une carte Visa Gold Internationale qui vous donne accès à un programme d’avantages commerçants et à des services d’assistance\\
+Compte chèque exonéré des frais de tenue de compte\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 MAD incl. VAT / month Free for the first 6 months\\
+Covers the essentials of your daily banking transactions and offers you an International Visa Gold card that gives you access to a range of merchant advantages and assistance services.\\
+Checking account with no account maintenance fees\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 Dhs impuestos incl. / Mes gratuito los 6 primeros meses\\
+Cubre la mayoría de sus transacciones bancarias cotidianas y le proporciona una tarjeta Visa Oro Internacional con acceso a un programa de ventajas para comercios y servicios de asistencia\\
+Cuenta de cheques exenta de gastos de mantenimiento de cuenta\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 درهم شاملة الضريبة / شهر مجاني لأول 6 أشهر\\
+يغطي جميع العمليات البنكية الجارية ويوفر لكم بطاقة فيزا Gold غولد الدولية التي تمنحكم ولوجا إلى برنامج مزايا التجار وخدمات المساعدة.\\
+خدمة البنك عن بعد BMCE Direct\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DH 19 incl / maand De eerste zes maanden gratis\\
+Dekt je meeste dagelijkse banktransacties en biedt een Visa Gold International-kaart met toegang tot een voordeelprogramma voor winkeliers en ondersteunende diensten.\\
+Chequerekening vrijgesteld van kosten voor rekeningbeheer\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 Dhs IVA compresa / mese Gratuito i primi 6 mesi\\
+Copre la maggior parte delle transazioni bancarie quotidiane oltre a concedervi una carta Visa Gold International con accesso a un programma di vantaggi per gli esercenti e a servizi di assistenza.\\
+Conto corrente esente da spese di tenuta conto\\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 DH inkl. MwSt./Monat Die ersten 6 Monate kostenlos\\
+Deckt den Großteil Ihrer täglichen Bankgeschäfte ab und bietet Ihnen eine internationale Visa Gold-Karte, mit der Sie Zugang zu einem Programm mit Händlervorteilen und Support-Leistungen haben.\\
+Scheckkonto ohne Kontoführungsgebühren  \\                        
+</t>
   </si>
   <si>
     <t>Bas de page page des offres</t>
@@ -1946,84 +1624,92 @@
   </si>
   <si>
     <t>Découvrez nos autres services gratuits\\
--Réception du code PIN Par SMS\\
--Modification du code PIN Sur un Guichet Automatique BANK OF AFRICA\\
-- Activation à distance de la dotation ( touristique et e-commerce) : sur l’appli de banque à distance/l’espace en ligne : BMCE DIRECT ou en appelant la Ligne Directe, au 080100 8100; Activez votre dotation gratuitement et payez sans frais vos transactions e-commerce internationales et vos achats à l'étranger.\\</t>
+Réception du code PIN Par SMS\\
+Modification du code PIN Sur un Guichet Automatique BANK OF AFRICA\\
+Activation à distance de la dotation ( touristique et e-commerce) : sur l’appli de banque à distance/l’espace en ligne : BMCE DIRECT ou en appelant la Ligne Directe, au 080100 8100; Activez votre dotation gratuitement et payez sans frais vos transactions e-commerce internationales et vos achats à l’étranger.\\</t>
   </si>
   <si>
     <t>Discover our other free services\\
--Receive your PIN code via SMS\\
--PIN code changes at a BANK OF AFRICA ATM\\
-- Remote account activation (tourism and e-commerce): on the remote banking app/online space: BMCE DIRECT or by calling the Direct Line, 080100 8100; Activate your account free of charge and pay your international e-commerce transactions and purchases abroad free of charge.\\</t>
-  </si>
-  <si>
-    <t>Descubra nuestros otros servicios gratuitos
--Envío del código PIN por SMS
--Modificación del código PIN en un cajero automático del BANCO DE ÁFRICA
-- Activación a distancia de la dotación (turística y comercio electrónico): en la app de banca a distancia/espacio en línea: BMCE DIRECT o llamando a la línea directa en el 080100 8100; Active su dotación gratuitamente y pague sus transacciones de comercio electrónico internacional y sus compras en el extranjero.</t>
+Receive your PIN code via SMS\\
+PIN code changes at a BANK OF AFRICA ATM\\
+Remote account activation (tourism and e-commerce): on the remote banking app/online space: BMCE DIRECT or by calling the Direct Line, 080100 8100; Activate your account free of charge and pay your international e-commerce transactions and purchases abroad free of charge.\\</t>
+  </si>
+  <si>
+    <t>Descubra nuestros otros servicios gratuitos\\
+Envío del código PIN por SMS\\
+Modificación del código PIN en un cajero automático del BANCO DE ÁFRICA\\
+Activación a distancia de la dotación (turística y comercio electrónico): en la app de banca a distancia/espacio en línea: BMCE DIRECT o llamando a la línea directa en el 080100 8100; Active su dotación gratuitamente y pague sus transacciones de comercio electrónico internacional y sus compras en el extranjero.\\</t>
   </si>
   <si>
     <t>اكتشفوا خدماتنا المجانية الأخرى:\\
-- استلام رمز الدخول عبر الرسائل النصية\\
-- تغيير رمز الدخول على جهاز الشباك الأوتوماتيكي لبنك أفريقيا\\
-- تفعيل التعبئة عن بُعد (السياحية والتجارية): عبر تطبيق البنك عن بُعد/الفضاء الإلكتروني BMCE DIRECT أو بالاتصال بالخط المباشر على الرقم 080100 8100. قوموا بتفعيل تعبئتكم مجانًا وادفعوا بدون رسوم لكل معاملاتكم التجارية الدولية عبر الإنترنت ومشترياتكم في الخارج.\\</t>
-  </si>
-  <si>
-    <t>Ontdek onze andere gratis diensten
--PIN-code ontvang je per SMS
--Wijziging van PIN-code op een geldautomaat van BANK OF AFRICA
-- Activering op afstand van de bijschrijving (toeristisch en e-commerce): op de app voor telebankieren/online: BMCE DIRECT of door te bellen naar de Directe Lijn, 080100 8100; Activeer gratis je toewijzing en betaal gratis je internationale e-commerce transacties en je aankopen in het buitenland”.</t>
+استلام رمز الدخول عبر الرسائل النصية\\
+تغيير رمز الدخول على جهاز الشباك الأوتوماتيكي لبنك أفريقيا\\
+تفعيل التعبئة عن بُعد (السياحية والتجارية): عبر تطبيق البنك عن بُعد/الفضاء الإلكتروني BMCE DIRECT أو بالاتصال بالخط المباشر على الرقم 080100 8100. قوموا بتفعيل تعبئتكم مجانًا وادفعوا بدون رسوم لكل معاملاتكم التجارية الدولية عبر الإنترنت ومشترياتكم في الخارج.\\</t>
+  </si>
+  <si>
+    <t>Ontdek onze andere gratis diensten \\
+PIN-code ontvang je per SMS\\
+Wijziging van PIN-code op een geldautomaat van BANK OF AFRICA\\
+Activering op afstand van de bijschrijving (toeristisch en e-commerce): op de app voor telebankieren/online: BMCE DIRECT of door te bellen naar de Directe Lijn, 080100 8100; Activeer gratis je toewijzing en betaal gratis je internationale e-commerce transacties en je aankopen in het buitenland\\.</t>
   </si>
   <si>
     <t>Scoprite i nostri altri servizi gratuiti\\
--Ricezione del codice PIN via SMS\\
--Modifica del codice PIN su un ATM di BANK OF AFRICA\\
-- Attivazione a distanza della dotazione (turistica e di e-commerce): sull'app dell’home banking/area online: BMCE DIRECT o chiamando la Direct Line al numero 080100 8100; Attivate gratuitamente la vostra dotazione e pagate le vostre transazioni internazionali di e-commerce e i vostri acquisti all'estero.\\</t>
-  </si>
-  <si>
-    <t>Entdecken Sie unsere anderen kostenlosen Dienste.
-- Erhalt des PIN-Codes per SMS
-- Änderung des PIN-Codes an einem Automaten der BANK OF AFRICA.
-- Fernaktivierung des Guthabens (Tourismus und E-Commerce): auf der Telebanking-App/im Online-Bereich:
-BMCE DIRECT oder über die Hotline 080100 8100; Aktivieren Sie Ihr Guthaben kostenlos und bezahlen Sie gebührenfrei für internationale E-Commerce-Transaktionen und Einkäufe im Ausland.</t>
+Ricezione del codice PIN via SMS\\
+Modifica del codice PIN su un ATM di BANK OF AFRICA\\
+Attivazione a distanza della dotazione (turistica e di e-commerce): sull’app dell’home banking/area online: BMCE DIRECT o chiamando la Direct Line al numero 080100 8100; Attivate gratuitamente la vostra dotazione e pagate le vostre transazioni internazionali di e-commerce e i vostri acquisti all’estero.\\</t>
+  </si>
+  <si>
+    <t>Entdecken Sie unsere anderen kostenlosen Dienste.\\
+Erhalt des PIN-Codes per SMS\\
+Änderung des PIN-Codes an einem Automaten der BANK OF AFRICA.\\
+Fernaktivierung des Guthabens (Tourismus und E-Commerce): auf der Telebanking-App/im Online-Bereich: BMCE DIRECT oder über die Hotline 080100 8100; Aktivieren Sie Ihr Guthaben kostenlos und bezahlen Sie gebührenfrei für internationale E-Commerce-Transaktionen und Einkäufe im Ausland.\\</t>
   </si>
   <si>
     <t>Offres MRE</t>
   </si>
   <si>
-    <t>J'ai trouvé que la tarification MRE n'est pas correcte par rapport à celle en production. Sachant qu'Imane ne nous a pas demandé de les changer, Mehdi GHANEME , peux-tu s'il te plaît vérifier avec Imane ?
-Imane nous a confirmé que les tarifs ont changé</t>
-  </si>
-  <si>
-    <t>Pack Blue : 16.5 Dh TTC/ mois
-Pack First : 38.5 Dh TTC/ mois</t>
-  </si>
-  <si>
-    <t>Blue Pack: 16.5 MAD incl. VAT/month 
-First Pack: 38.5 MAD incl. tax/month</t>
-  </si>
-  <si>
-    <t>Pack Azul: 16.5 Dhs impuestos incluidos/mes
-Paquete Primero: 38.5 Dhs impuestos incluidos/mes</t>
-  </si>
-  <si>
-    <t>عرض Pack Blue: 16,5 درهم شاملة الضريبة/ الشهر
-عرض Pack First: 38,5 درهم شاملة الضريبة/ الشهر</t>
-  </si>
-  <si>
-    <t>Pack Blue: DH 16.5 incl / maand
-Pack First: DH 38,5 incl / maand”.</t>
-  </si>
-  <si>
-    <t>Pack Blue: 16.5 Dh IVA inclusa / mese
-Pack First : 38.5 Dh IVA inclusa / mese</t>
-  </si>
-  <si>
-    <t>Blue-Paket: 16,5 DH inkl. MwSt./Monat
-First Paket: 38,5 DH inkl. MwSt./Monat</t>
+    <t>J’ai trouvé que la tarification MRE n’est pas correcte par rapport à celle en production. Sachant qu’Imane ne nous a pas demandé de les changer, Mehdi GHANEME , peux-tu s’il te plaît vérifier avec Imane ?
+Imane nous a confirmé que les tarifs ont changé
+Je pense qu’il faut garder la gratuité de 6 mois
++ to be change fees prices, in pinnedOffers#6,pinnedOffers#5</t>
+  </si>
+  <si>
+    <t>rich#204\\
+rich#214\\</t>
+  </si>
+  <si>
+    <t>16.5 Dh TTC/ mois\\
+38.5 Dh TTC/ mois\\</t>
+  </si>
+  <si>
+    <t>16.5 MAD incl. VAT/month \\
+38.5 MAD incl. tax/month\\</t>
+  </si>
+  <si>
+    <t>16.5 Dhs impuestos incluidos/mes\\
+38.5 Dhs impuestos incluidos/mes\\</t>
+  </si>
+  <si>
+    <t>16,5 درهم شاملة الضريبة/ الشهر\\
+38,5 درهم شاملة الضريبة/ الشهر\\</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DH 16.5 incl / maand\\
+ DH 38,5 incl / maand”.\\</t>
+  </si>
+  <si>
+    <t>16.5 Dh IVA inclusa / mese\\
+38.5 Dh IVA inclusa / mese\\</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16,5 DH inkl. MwSt./Monat\\
+38,5 DH inkl. MwSt./Monat\\</t>
   </si>
   <si>
     <t>Landing page - expérience web et mobile</t>
+  </si>
+  <si>
+    <t>components_language_language_rich_texts#10,components_language_language_rich_texts#11 to be removed</t>
   </si>
   <si>
     <t>rich#8\\
@@ -2036,14 +1722,14 @@
 Nos conseillers sont à votre entière disposition pour vous accompagner et vous assister dans toutes les étapes d’ouverture de votre compte bancaire en ligne.\\</t>
   </si>
   <si>
-    <t>Opening an online bank account at BANK OF AFRICA's Agence Directe is 100% remote and secure, and can be done in just 3 easy steps.\\
+    <t>Opening an online bank account at BANK OF AFRICA’s Agence Directe is 100% remote and secure, and can be done in just 3 easy steps.\\
 Depending on your specific needs, you can select from a wide range of attractive options to take advantage of a full range of banking products and services from as little as 0 MAD,\\
 Our advisors are available to support and assist you at every stage of opening your online bank account.\\</t>
   </si>
   <si>
-    <t>La apertura de una cuenta bancaria en línea con Agence Directe del BANK OF AFRICA es 100 % a distancia, completamente segura e implica un proceso sencillo e intuitivo en sólo 3 pasos.
-En función de sus necesidades, puede elegir entre una amplia gama de ventajosas ofertas para beneficiarse de los productos y servicios bancarios esenciales desde tan sólo 0 dhs,
-Nuestros asesores están a su entera disposición para guiarle y ayudarle en cada etapa de la apertura de su cuenta bancaria en línea.</t>
+    <t>La apertura de una cuenta bancaria en línea con Agence Directe del BANK OF AFRICA es 100 % a distancia, completamente segura e implica un proceso sencillo e intuitivo en sólo 3 pasos.\\
+En función de sus necesidades, puede elegir entre una amplia gama de ventajosas ofertas para beneficiarse de los productos y servicios bancarios esenciales desde tan sólo 0 dhs,\\
+Nuestros asesores están a su entera disposición para guiarle y ayudarle en cada etapa de la apertura de su cuenta bancaria en línea.\\</t>
   </si>
   <si>
     <t>فتح حساب بنكي عبر الإنترنت على الوكالة المباشرة Agence Directe لبنك أفريقيا يتم 100٪ عن بُعد، بأمان تام، عبر تتبع 3 خطوات بسيطة وبديهية فقط.\\
@@ -2051,31 +1737,35 @@
 مستشارونا رهن إشارتكم لمساعدتكم ومرافقتكم في جميع مراحل فتح حسابكم البنكي عبر الإنترنت.\\</t>
   </si>
   <si>
-    <t>Online een bankrekening openen bij Agence Directe BANK OF AFRICA gebeurt 100% op afstand, volledig veilig, in slechts 3 stappen volgens een eenvoudig en intuïtief proces.
-Afhankelijk van je behoeften kun je kiezen uit een groot aantal voordelige aanbiedingen en zo profiteren van de essentiële bankproducten en -diensten vanaf slechts DH 0,
-Onze adviseurs staan geheel tot je beschikking en begeleiden en helpen je in elke fase van het openen van je online bankrekening.</t>
-  </si>
-  <si>
-    <t>L'apertura di un conto bancario online presso l'Agence Directe di BANK OF AFRICA è al 100% da remoto, completamente sicura e richiede solo 3 semplici e intuitivi passaggi.\\
-A seconda delle vostre esigenze, potete approfittare di un'ampia gamma di offerte vantaggiose per beneficiare dell'essenziale dei prodotti e servizi bancari a partire da 0 dhs.\\
-I nostri consulenti sono a vostra completa disposizione per guidarvi e assistervi in ogni fase dell'apertura del vostro conto bancario online.\\</t>
-  </si>
-  <si>
-    <t>Die Eröffnung eines Online-Bankkontos bei der Agence Directe der BANK OF AFRICA erfolgt vollkommen sicher und zu 100% bequem von zu Hause aus, über einen einfachen und intuitiven Weg in nur drei Schritten.
-Je nach Ihren Bedürfnissen steht Ihnen eine ganze Reihe von günstigen Angeboten zur Verfügung, mit denen Sie die wichtigsten Bankprodukte und -dienstleistungen schon ab 0 DH nutzen können.
-Unsere Berater stehen Ihnen jederzeit zur Verfügung, um Sie bei sämtlichen Schritten zur Eröffnung Ihres Online-Bankkontos zu begleiten und zu unterstützen.</t>
-  </si>
-  <si>
-    <t>L'apertura di un conto bancario online presso l'Agence Directe di BANK OF AFRICA è al 100% da remoto, completamente sicura e richiede solo 3 semplici e intuitivi passaggi.
-A seconda delle vostre esigenze, potete approfittare di un'ampia gamma di offerte vantaggiose per beneficiare dell'essenziale dei prodotti e servizi bancari a partire da 0 dhs.
-I nostri consulenti sono a vostra completa disposizione per guidarvi e assistervi in ogni fase dell'apertura del vostro conto bancario online.</t>
+    <t>Online een bankrekening openen bij Agence Directe BANK OF AFRICA gebeurt 100% op afstand, volledig veilig, in slechts 3 stappen volgens een eenvoudig en intuïtief proces.\\
+Afhankelijk van je behoeften kun je kiezen uit een groot aantal voordelige aanbiedingen en zo profiteren van de essentiële bankproducten en -diensten vanaf slechts DH 0,\\
+Onze adviseurs staan geheel tot je beschikking en begeleiden en helpen je in elke fase van het openen van je online bankrekening.\\</t>
+  </si>
+  <si>
+    <t>L’apertura di un conto bancario online presso l’Agence Directe di BANK OF AFRICA è al 100% da remoto, completamente sicura e richiede solo 3 semplici e intuitivi passaggi.\\
+A seconda delle vostre esigenze, potete approfittare di un’ampia gamma di offerte vantaggiose per beneficiare dell’essenziale dei prodotti e servizi bancari a partire da 0 dhs.\\
+I nostri consulenti sono a vostra completa disposizione per guidarvi e assistervi in ogni fase dell’apertura del vostro conto bancario online.\\</t>
+  </si>
+  <si>
+    <t>Die Eröffnung eines Online-Bankkontos bei der Agence Directe der BANK OF AFRICA erfolgt vollkommen sicher und zu 100% bequem von zu Hause aus, über einen einfachen und intuitiven Weg in nur drei Schritten.\\
+Je nach Ihren Bedürfnissen steht Ihnen eine ganze Reihe von günstigen Angeboten zur Verfügung, mit denen Sie die wichtigsten Bankprodukte und -dienstleistungen schon ab 0 DH nutzen können.\\
+Unsere Berater stehen Ihnen jederzeit zur Verfügung, um Sie bei sämtlichen Schritten zur Eröffnung Ihres Online-Bankkontos zu begleiten und zu unterstützen.\\</t>
+  </si>
+  <si>
+    <t>Pack Blue: 16.5 Dh IVA inclusa / mese
+Pack First : 38.5 Dh IVA inclusa / mese</t>
+  </si>
+  <si>
+    <t>L’apertura di un conto bancario online presso l’Agence Directe di BANK OF AFRICA è al 100% da remoto, completamente sicura e richiede solo 3 semplici e intuitivi passaggi.
+A seconda delle vostre esigenze, potete approfittare di un’ampia gamma di offerte vantaggiose per beneficiare dell’essenziale dei prodotti e servizi bancari a partire da 0 dhs.
+I nostri consulenti sono a vostra completa disposizione per guidarvi e assistervi in ogni fase dell’apertura del vostro conto bancario online.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2104,11 +1794,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF1F2328"/>
-      <name val="Ui-monospace"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -2120,11 +1805,6 @@
       <sz val="11.0"/>
       <color rgb="FF172B4D"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF172B4D"/>
-      <name val="-apple-system"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -2148,7 +1828,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2189,12 +1869,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2289,7 +1963,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2316,14 +1990,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -2331,60 +2005,69 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -2392,37 +2075,34 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2643,12 +2323,16 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="49.5"/>
-    <col customWidth="1" min="2" max="3" width="54.88"/>
-    <col customWidth="1" min="4" max="4" width="55.13"/>
-    <col customWidth="1" min="5" max="5" width="79.0"/>
-    <col customWidth="1" min="6" max="8" width="12.5"/>
+    <col customWidth="1" min="2" max="2" width="54.88"/>
+    <col customWidth="1" min="3" max="3" width="30.25"/>
+    <col customWidth="1" min="4" max="4" width="80.63"/>
+    <col customWidth="1" min="5" max="5" width="37.38"/>
+    <col customWidth="1" min="6" max="6" width="31.13"/>
+    <col customWidth="1" min="7" max="7" width="47.13"/>
+    <col customWidth="1" min="8" max="8" width="29.5"/>
     <col customWidth="1" min="9" max="9" width="50.75"/>
-    <col customWidth="1" min="10" max="22" width="12.5"/>
+    <col customWidth="1" min="10" max="10" width="51.38"/>
+    <col customWidth="1" min="11" max="22" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2793,110 +2477,110 @@
         <v>39</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="E8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="I8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="27" t="s">
+      <c r="G9" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="H9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="25" t="s">
+      <c r="J9" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>69</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
@@ -2913,30 +2597,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="G10" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="H10" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="I10" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="J10" s="31" t="s">
         <v>76</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
@@ -2953,30 +2637,30 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="G11" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="H11" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="I11" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="J11" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
@@ -2993,30 +2677,30 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="G12" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="I12" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="J12" s="31" t="s">
         <v>90</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
@@ -3033,30 +2717,30 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="G13" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="H13" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="I13" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="J13" s="31" t="s">
         <v>97</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
@@ -3073,30 +2757,30 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="F14" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="H14" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="I14" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="J14" s="31" t="s">
         <v>104</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
@@ -3113,30 +2797,30 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="F15" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="G15" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="H15" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="I15" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="J15" s="31" t="s">
         <v>111</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
@@ -3153,30 +2837,30 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="F16" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="G16" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="H16" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="I16" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="J16" s="31" t="s">
         <v>119</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
@@ -3193,30 +2877,30 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="F17" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="G17" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="H17" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="I17" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="J17" s="31" t="s">
         <v>126</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
@@ -3233,30 +2917,30 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="F18" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="G18" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="H18" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="I18" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="J18" s="31" t="s">
         <v>133</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
@@ -3273,30 +2957,30 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="F19" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="G19" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="H19" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="I19" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="J19" s="31" t="s">
         <v>140</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
@@ -3313,30 +2997,30 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="F20" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="G20" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="H20" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="I20" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="J20" s="31" t="s">
         <v>147</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>148</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
@@ -3353,30 +3037,30 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="F21" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="G21" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="H21" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="I21" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="J21" s="31" t="s">
         <v>154</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>155</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
@@ -3393,30 +3077,30 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="F22" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="G22" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="H22" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="I22" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="J22" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
@@ -3433,30 +3117,30 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="F23" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="G23" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="H23" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="I23" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="J23" s="31" t="s">
         <v>169</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
@@ -3473,30 +3157,30 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="F24" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="G24" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="H24" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="I24" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="J24" s="31" t="s">
         <v>176</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>177</v>
       </c>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
@@ -3513,30 +3197,30 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="F25" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="G25" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="H25" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="I25" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="J25" s="31" t="s">
         <v>183</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
@@ -3553,30 +3237,30 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="F26" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="G26" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="H26" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="I26" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="J26" s="31" t="s">
         <v>190</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
@@ -3593,30 +3277,30 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="G27" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="H27" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="I27" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="J27" s="31" t="s">
         <v>197</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -3633,30 +3317,30 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="F28" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="G28" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="H28" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="I28" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="J28" s="31" t="s">
         <v>204</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
@@ -3673,30 +3357,30 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="F29" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="G29" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="H29" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="I29" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="J29" s="31" t="s">
         <v>211</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>212</v>
       </c>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
@@ -3713,30 +3397,30 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="F30" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="G30" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="H30" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="I30" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="J30" s="31" t="s">
         <v>219</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>220</v>
       </c>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
@@ -3753,30 +3437,30 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="F31" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="G31" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="H31" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="I31" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="J31" s="31" t="s">
         <v>226</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
@@ -3793,32 +3477,32 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="D32" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="F32" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="G32" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="H32" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="I32" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="J32" s="31" t="s">
         <v>233</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>234</v>
       </c>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
@@ -3835,30 +3519,30 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="F33" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="G33" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="H33" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="I33" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="I33" s="31" t="s">
+      <c r="J33" s="31" t="s">
         <v>240</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
@@ -3875,30 +3559,30 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="F34" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="G34" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="H34" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="I34" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="I34" s="31" t="s">
+      <c r="J34" s="31" t="s">
         <v>247</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
@@ -3915,30 +3599,30 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="F35" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="G35" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="H35" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="I35" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="J35" s="31" t="s">
         <v>254</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>255</v>
       </c>
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
@@ -3955,30 +3639,30 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="F36" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="G36" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="H36" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="I36" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="J36" s="31" t="s">
         <v>261</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
@@ -3994,59 +3678,61 @@
       <c r="V36" s="30"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35" t="s">
+      <c r="D37" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="E37" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="F37" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="G37" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="H37" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="H37" s="36" t="s">
+      <c r="I37" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="I37" s="35" t="s">
+      <c r="J37" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="C38" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="38" t="s">
         <v>279</v>
       </c>
       <c r="J38" s="15" t="s">
@@ -4054,246 +3740,254 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="B39" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" s="35" t="s">
+      <c r="B39" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="C39" s="38" t="s">
         <v>283</v>
       </c>
+      <c r="D39" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="E39" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F39" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="G39" s="37" t="s">
+      <c r="F39" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="G39" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="I39" s="35" t="s">
+      <c r="H39" s="39" t="s">
         <v>288</v>
       </c>
+      <c r="I39" s="38" t="s">
+        <v>289</v>
+      </c>
       <c r="J39" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34" t="s">
+      <c r="A40" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="B40" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="C40" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="D40" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="H40" s="36" t="s">
+      <c r="E40" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="F40" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="J40" s="41" t="s">
+      <c r="G40" s="40" t="s">
         <v>297</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="J40" s="42" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="D41" s="35" t="s">
+      <c r="A41" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="B41" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="C41" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="G41" s="39" t="s">
+      <c r="D41" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="E41" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="F41" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="J41" s="41" t="s">
+      <c r="G41" s="40" t="s">
         <v>307</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="J41" s="42" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="F42" s="36" t="s">
+      <c r="A42" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="G42" s="39" t="s">
+      <c r="B42" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="36" t="s">
+      <c r="D42" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="E42" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="J42" s="29" t="s">
+      <c r="F42" s="39" t="s">
         <v>315</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J42" s="43" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>318</v>
+      <c r="A43" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>322</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="G43" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="I43" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="J43" s="42" t="s">
+      <c r="F43" s="39" t="s">
         <v>324</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="J43" s="44" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="34" t="s">
-        <v>327</v>
+      <c r="A44" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>332</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="G44" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="I44" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="J44" s="41" t="s">
         <v>333</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="J44" s="42" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>336</v>
+      <c r="A45" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>342</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="I45" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="J45" s="41" t="s">
-        <v>342</v>
+        <v>343</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J45" s="42" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="J46" s="46"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="J46" s="48"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="J47" s="46"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="J47" s="48"/>
     </row>
     <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
